--- a/Financial Services/Visa.xlsx
+++ b/Financial Services/Visa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABD280E-F5C4-A74D-9C9F-0EF646A379B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9F6CB3-0868-8C46-8942-FF2ED3E77D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1005,6 +1005,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,10 +1027,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2350,13 +2350,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>234.3</v>
+    <v>235.56800000000001</v>
     <v>174.6</v>
-    <v>0.9647</v>
-    <v>-2.1800000000000002</v>
-    <v>-9.554E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>0.96489999999999998</v>
+    <v>-2.08</v>
+    <v>-8.9149999999999993E-3</v>
+    <v>0.42</v>
+    <v>1.8160000000000001E-3</v>
     <v>USD</v>
     <v>Visa Inc. (Visa) is a global payments technology company. The Company provides digital payments across more than 200 countries and territories. The Company connects consumers, merchants, financial institutions, businesses, strategic partners and government entities through technologies. The Company operates through the payment services segment. The Company provides transaction processing services, including primarily authorization, clearing and settlement to its financial institution and merchant clients through VisaNet, its transaction processing network. Its core business solutions, including credit, debit, prepaid and cash access programs for individual, business and government account holders. It also provides value-added services to its clients, including issuing solutions, acceptance solutions, risk and identity solutions, open banking and advisory services. It also offers products and solutions that facilitate money movement for all participants in the ecosystem.</v>
     <v>26500</v>
@@ -2364,25 +2364,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>P.O. Box 8999, SAN FRANCISCO, CA, 94128-8999 US</v>
-    <v>226.73</v>
+    <v>233.87</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45022.999148460156</v>
+    <v>45068.900934120313</v>
     <v>0</v>
-    <v>224.68</v>
-    <v>465133500000</v>
+    <v>231.17500000000001</v>
+    <v>473823798350</v>
     <v>VISA INC.</v>
     <v>VISA INC.</v>
-    <v>226.16</v>
-    <v>31.911899999999999</v>
-    <v>228.17</v>
-    <v>225.99</v>
-    <v>225.99</v>
-    <v>2058204000</v>
+    <v>233.31</v>
+    <v>31.191199999999998</v>
+    <v>233.31</v>
+    <v>231.23</v>
+    <v>231.7</v>
+    <v>2049145000</v>
     <v>V</v>
     <v>VISA INC. (XNYS:V)</v>
-    <v>4285206</v>
-    <v>7178888</v>
+    <v>3983103</v>
+    <v>5491013</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2547,9 +2547,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2970,10 +2970,10 @@
   <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V115" sqref="V115"/>
+      <selection pane="bottomRight" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4223,15 +4223,15 @@
       </c>
       <c r="AA16" s="30">
         <f>AB101/T3</f>
-        <v>15.869447287615149</v>
+        <v>16.165943307744797</v>
       </c>
       <c r="AB16" s="30">
         <f>AB101/T28</f>
-        <v>31.098047736845626</v>
+        <v>31.679066547435983</v>
       </c>
       <c r="AC16" s="31">
         <f>AB101/T106</f>
-        <v>26.015632865372783</v>
+        <v>26.501694633368757</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8461,10 +8461,10 @@
       <c r="T83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA83" s="57" t="s">
+      <c r="AA83" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="AB83" s="58"/>
+      <c r="AB83" s="62"/>
     </row>
     <row r="84" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8527,10 +8527,10 @@
       <c r="T84" s="1">
         <v>67000000</v>
       </c>
-      <c r="AA84" s="59" t="s">
+      <c r="AA84" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AB84" s="60"/>
+      <c r="AB84" s="64"/>
     </row>
     <row r="85" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9164,10 +9164,10 @@
       <c r="T93" s="1">
         <v>128000000</v>
       </c>
-      <c r="AA93" s="59" t="s">
+      <c r="AA93" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="AB93" s="60"/>
+      <c r="AB93" s="64"/>
     </row>
     <row r="94" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9301,9 +9301,9 @@
       <c r="AA95" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AB95" s="62" cm="1">
+      <c r="AB95" s="56" cm="1">
         <f t="array" ref="AB95">_FV(A1,"Beta")</f>
-        <v>0.9647</v>
+        <v>0.96489999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="AB97" s="35">
         <f>(AB94)+((AB95)*(AB96-AB94))</f>
-        <v>8.2480335000000002E-2</v>
+        <v>8.2488945000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9504,10 +9504,10 @@
       <c r="T98" s="1">
         <v>-3203000000</v>
       </c>
-      <c r="AA98" s="59" t="s">
+      <c r="AA98" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="AB98" s="60"/>
+      <c r="AB98" s="64"/>
     </row>
     <row r="99" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="AB100" s="33">
         <f>AB99/AB103</f>
-        <v>4.6043395644028151E-2</v>
+        <v>4.5237125301882258E-2</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="AB101" s="48" cm="1">
         <f t="array" ref="AB101">_FV(A1,"Market cap",TRUE)</f>
-        <v>465133500000</v>
+        <v>473823798350</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="AB102" s="33">
         <f>AB101/AB103</f>
-        <v>0.95395660435597185</v>
+        <v>0.95476287469811771</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="AB103" s="37">
         <f>AB99+AB101</f>
-        <v>487583500000</v>
+        <v>496273798350</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9915,10 +9915,10 @@
       <c r="T104" s="11">
         <v>20377000000</v>
       </c>
-      <c r="AA104" s="59" t="s">
+      <c r="AA104" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="AB104" s="60"/>
+      <c r="AB104" s="64"/>
     </row>
     <row r="105" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="AB105" s="26">
         <f>(AB100*AB92)+(AB102*AB97)</f>
-        <v>7.9592649552323952E-2</v>
+        <v>7.9651436599075282E-2</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -10072,23 +10072,23 @@
       <c r="T106" s="1">
         <v>17879000000</v>
       </c>
-      <c r="U106" s="61">
+      <c r="U106" s="55">
         <f>T106*(1+$AB$106)</f>
         <v>19894539961.569832</v>
       </c>
-      <c r="V106" s="61">
+      <c r="V106" s="55">
         <f t="shared" ref="V106:Y106" si="29">U106*(1+$AB$106)</f>
         <v>22137296285.166897</v>
       </c>
-      <c r="W106" s="61">
+      <c r="W106" s="55">
         <f t="shared" si="29"/>
         <v>24632883583.330399</v>
       </c>
-      <c r="X106" s="61">
+      <c r="X106" s="55">
         <f t="shared" si="29"/>
         <v>27409804061.595394</v>
       </c>
-      <c r="Y106" s="61">
+      <c r="Y106" s="55">
         <f t="shared" si="29"/>
         <v>30499773043.358612</v>
       </c>
@@ -10130,7 +10130,7 @@
       <c r="X107" s="38"/>
       <c r="Y107" s="41">
         <f>Y106*(1+AB107)/(AB108-AB107)</f>
-        <v>572646091109.38037</v>
+        <v>572030111464.10632</v>
       </c>
       <c r="Z107" s="42" t="s">
         <v>147</v>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="Y108" s="41">
         <f>Y107+Y106</f>
-        <v>603145864152.73901</v>
+        <v>602529884507.46497</v>
       </c>
       <c r="Z108" s="42" t="s">
         <v>143</v>
@@ -10171,14 +10171,14 @@
       </c>
       <c r="AB108" s="46">
         <f>AB105</f>
-        <v>7.9592649552323952E-2</v>
+        <v>7.9651436599075282E-2</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U109" s="55" t="s">
+      <c r="U109" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="V109" s="56"/>
+      <c r="V109" s="60"/>
     </row>
     <row r="110" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="U110" s="47" t="s">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="V110" s="48">
         <f>NPV(AB108,U108,V108,W108,X108,Y108)</f>
-        <v>488441233104.18884</v>
+        <v>487898711853.00946</v>
       </c>
     </row>
     <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -10213,7 +10213,7 @@
       </c>
       <c r="V113" s="48">
         <f>V110+V111-V112</f>
-        <v>484513233104.18884</v>
+        <v>483970711853.00946</v>
       </c>
     </row>
     <row r="114" spans="21:22" ht="20" x14ac:dyDescent="0.25">
@@ -10229,18 +10229,18 @@
       <c r="U115" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="V115" s="64">
+      <c r="V115" s="58">
         <f>V113/V114</f>
-        <v>243.16631410410545</v>
+        <v>242.89403486804162</v>
       </c>
     </row>
     <row r="116" spans="21:22" ht="20" x14ac:dyDescent="0.25">
       <c r="U116" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="V116" s="63" cm="1">
+      <c r="V116" s="57" cm="1">
         <f t="array" ref="V116">_FV(A1,"Price")</f>
-        <v>225.99</v>
+        <v>231.23</v>
       </c>
     </row>
     <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="V117" s="52">
         <f>V115/V116-1</f>
-        <v>7.6004752883337412E-2</v>
+        <v>5.0443432374871922E-2</v>
       </c>
     </row>
     <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/Visa.xlsx
+++ b/Financial Services/Visa.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9F6CB3-0868-8C46-8942-FF2ED3E77D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D977A2FA-DE61-1645-8595-C3DB6AD80CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,50 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,98 +917,101 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,12 +1062,20 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>V</a:t>
+              <a:t>Visa</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47784462809917355"/>
+          <c:y val="2.6335040234089245E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1116,10 +1109,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9061157024793383E-2"/>
+          <c:x val="0.10021818181818182"/>
           <c:y val="0.14424298279467079"/>
-          <c:w val="0.8654016528925621"/>
-          <c:h val="0.7244615198520814"/>
+          <c:w val="0.84424462809917356"/>
+          <c:h val="0.66301309263920649"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1369,11 +1362,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106:$B$106</c:f>
+              <c:f>'Sheet 1'!$A$107:$B$107</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1416,7 +1409,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$106:$T$106</c:f>
+              <c:f>'Sheet 1'!$C$107:$T$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1548,6 +1541,7 @@
         <c:axId val="925176640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1581,7 +1575,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -2194,15 +2188,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>41274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2228,6 +2222,50 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2350,13 +2388,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>235.56800000000001</v>
+    <v>240</v>
     <v>174.6</v>
-    <v>0.96489999999999998</v>
-    <v>-2.08</v>
-    <v>-8.9149999999999993E-3</v>
-    <v>0.42</v>
-    <v>1.8160000000000001E-3</v>
+    <v>0.97019999999999995</v>
+    <v>-2.4300000000000002</v>
+    <v>-1.0172E-2</v>
+    <v>0.05</v>
+    <v>2.1149999999999999E-4</v>
     <v>USD</v>
     <v>Visa Inc. (Visa) is a global payments technology company. The Company provides digital payments across more than 200 countries and territories. The Company connects consumers, merchants, financial institutions, businesses, strategic partners and government entities through technologies. The Company operates through the payment services segment. The Company provides transaction processing services, including primarily authorization, clearing and settlement to its financial institution and merchant clients through VisaNet, its transaction processing network. Its core business solutions, including credit, debit, prepaid and cash access programs for individual, business and government account holders. It also provides value-added services to its clients, including issuing solutions, acceptance solutions, risk and identity solutions, open banking and advisory services. It also offers products and solutions that facilitate money movement for all participants in the ecosystem.</v>
     <v>26500</v>
@@ -2364,25 +2402,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>P.O. Box 8999, SAN FRANCISCO, CA, 94128-8999 US</v>
-    <v>233.87</v>
+    <v>238.44</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45068.900934120313</v>
+    <v>45114.999501053127</v>
     <v>0</v>
-    <v>231.17500000000001</v>
-    <v>473823798350</v>
+    <v>236.13</v>
+    <v>484520300000</v>
     <v>VISA INC.</v>
     <v>VISA INC.</v>
-    <v>233.31</v>
-    <v>31.191199999999998</v>
-    <v>233.31</v>
-    <v>231.23</v>
-    <v>231.7</v>
+    <v>236.73</v>
+    <v>31.611000000000001</v>
+    <v>238.88</v>
+    <v>236.45</v>
+    <v>236.5</v>
     <v>2049145000</v>
     <v>V</v>
     <v>VISA INC. (XNYS:V)</v>
-    <v>3983103</v>
-    <v>5491013</v>
+    <v>5729515</v>
+    <v>7754726</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2970,10 +3008,10 @@
   <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E119" sqref="E119"/>
+      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3044,19 +3082,19 @@
       <c r="T1" s="8">
         <v>2022</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1" s="23">
         <v>2023</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1" s="23">
         <v>2024</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1" s="23">
         <v>2025</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="23">
         <v>2026</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3065,70 +3103,70 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
@@ -3142,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>2664605000</v>
@@ -3198,37 +3236,37 @@
       <c r="T3" s="1">
         <v>29310000000</v>
       </c>
-      <c r="U3" s="28">
-        <v>32323000000</v>
-      </c>
-      <c r="V3" s="28">
-        <v>36103000000</v>
-      </c>
-      <c r="W3" s="28">
-        <v>40410000000</v>
-      </c>
-      <c r="X3" s="28">
-        <v>42686000000</v>
-      </c>
-      <c r="Y3" s="28">
+      <c r="U3" s="24">
+        <v>32589000000</v>
+      </c>
+      <c r="V3" s="24">
+        <v>36218000000</v>
+      </c>
+      <c r="W3" s="24">
+        <v>40430000000</v>
+      </c>
+      <c r="X3" s="24">
+        <v>43266000000</v>
+      </c>
+      <c r="Y3" s="24">
         <v>49870000000</v>
       </c>
       <c r="Z3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AC3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="e">
@@ -3244,84 +3282,84 @@
         <v>0.21765351955784795</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:Y4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:T4" si="0">(F3/E3)-1</f>
         <v>0.74466738499903617</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>0.1034647932300814</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>0.16698017653016928</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
         <v>0.13924364538127709</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f t="shared" si="0"/>
         <v>0.13419677840661737</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f t="shared" si="0"/>
         <v>0.13021782938297677</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <f t="shared" si="0"/>
         <v>7.8451349974528739E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <f t="shared" si="0"/>
         <v>9.2741300582585451E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <f t="shared" si="0"/>
         <v>8.6599423631123829E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <f t="shared" si="0"/>
         <v>0.21721257127701898</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <f t="shared" si="0"/>
         <v>0.12261684279333251</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="15">
         <f t="shared" si="0"/>
         <v>0.1149012567324954</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <f t="shared" si="0"/>
         <v>-4.92231361796579E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="15">
         <f t="shared" si="0"/>
         <v>0.10340565778632249</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="15">
         <f t="shared" si="0"/>
         <v>0.21593030491599263</v>
       </c>
       <c r="U4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.1027976799727055</v>
+        <f t="shared" ref="F4:Y4" si="1">(U3/T3)-1</f>
+        <v>0.11187308085977477</v>
       </c>
       <c r="V4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.11694459053924455</v>
+        <f t="shared" si="1"/>
+        <v>0.11135659271533349</v>
       </c>
       <c r="W4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.1192975652992827</v>
+        <f t="shared" si="1"/>
+        <v>0.11629576453697066</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" si="0"/>
-        <v>5.6322692402870578E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.0145931239178783E-2</v>
       </c>
       <c r="Y4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.16829873963360353</v>
+        <f t="shared" si="1"/>
+        <v>0.15263717468682114</v>
       </c>
       <c r="Z4" s="17">
         <f>(T4+S4+R4)/3</f>
@@ -3336,7 +3374,7 @@
         <v>8.2472222506066228E-2</v>
       </c>
       <c r="AC4" s="17">
-        <f>(T105+S105+R105)/3</f>
+        <f>(T106+S106+R106)/3</f>
         <v>0.17814898881663144</v>
       </c>
     </row>
@@ -3345,16 +3383,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
         <v>957011000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="1">
         <v>1538000000</v>
@@ -3407,16 +3445,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10">
         <v>1707594000</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="10">
         <v>4725000000</v>
@@ -3464,16 +3502,16 @@
         <v>23577000000</v>
       </c>
       <c r="Z6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AC6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AB6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -3481,16 +3519,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>0.64080000000000004</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2">
         <v>0.75439999999999996</v>
@@ -3550,7 +3588,7 @@
         <v>0.51029999999999998</v>
       </c>
       <c r="AC7" s="20">
-        <f>T106/T3</f>
+        <f>T107/T3</f>
         <v>0.60999658819515523</v>
       </c>
     </row>
@@ -3618,95 +3656,95 @@
     </row>
     <row r="9" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:T9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:T9" si="2">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AA9" s="19" t="s">
+      <c r="AB9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AB9" s="19" t="s">
+      <c r="AC9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AC9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -3714,7 +3752,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1">
         <v>665416000</v>
@@ -3792,7 +3830,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1">
         <v>456922000</v>
@@ -3854,7 +3892,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>1122338000</v>
@@ -3911,96 +3949,96 @@
         <v>3035000000</v>
       </c>
       <c r="Z12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AA12" s="19" t="s">
+      <c r="AC12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AB12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:T13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:T13" si="3">C12/C3</f>
         <v>0.42120239209939186</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22288565685455777</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22057827241436562</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28516685294587257</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23281724786572131</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19950402975821452</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17642577274706139</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16399577775645333</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14764815758193242</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13659266257282318</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12644092219020173</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13618883437209919</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13024294585466825</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12513950215925082</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11990251120685903</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11329305135951662</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10470856668740926</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10354827703855339</v>
       </c>
       <c r="Z13" s="17">
@@ -4025,13 +4063,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1">
         <v>4247460000</v>
@@ -4087,13 +4125,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>1122338000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1">
         <v>5039291000</v>
@@ -4144,16 +4182,16 @@
         <v>3896000000</v>
       </c>
       <c r="Z15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AA15" s="19" t="s">
+      <c r="AC15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AB15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4161,7 +4199,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1">
         <v>2079349000</v>
@@ -4217,35 +4255,35 @@
       <c r="T16" s="1">
         <v>9629000000</v>
       </c>
-      <c r="Z16" s="29">
+      <c r="Z16" s="25">
         <f>(T35+S35+R35+Q35+P35)/5</f>
         <v>-1.7868565059310757E-2</v>
       </c>
-      <c r="AA16" s="30">
+      <c r="AA16" s="26">
         <f>AB101/T3</f>
-        <v>16.165943307744797</v>
-      </c>
-      <c r="AB16" s="30">
+        <v>16.530887069259638</v>
+      </c>
+      <c r="AB16" s="26">
         <f>AB101/T28</f>
-        <v>31.679066547435983</v>
-      </c>
-      <c r="AC16" s="31">
-        <f>AB101/T106</f>
-        <v>26.501694633368757</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+        <v>32.394216754696799</v>
+      </c>
+      <c r="AC16" s="27">
+        <f>AB101/T107</f>
+        <v>27.099966441076123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1">
         <v>108485000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>80658000</v>
@@ -4263,16 +4301,16 @@
         <v>32000000</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1">
         <v>427000000</v>
@@ -4296,12 +4334,12 @@
         <v>538000000</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>135528000</v>
@@ -4358,15 +4396,24 @@
         <v>861000000</v>
       </c>
       <c r="Z18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC18" s="19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10">
         <v>692010000</v>
@@ -4422,14 +4469,41 @@
       <c r="T19" s="10">
         <v>19535000000</v>
       </c>
-      <c r="Z19" s="54">
+      <c r="U19" s="36">
+        <v>22790000000</v>
+      </c>
+      <c r="V19" s="36">
+        <v>25680000000</v>
+      </c>
+      <c r="W19" s="36">
+        <v>28662000000</v>
+      </c>
+      <c r="X19" s="36">
+        <v>30796000000</v>
+      </c>
+      <c r="Y19" s="36">
+        <v>34173000000</v>
+      </c>
+      <c r="Z19" s="30">
         <f>T40-T56-T61</f>
         <v>-3928000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA19" s="32">
+        <f>AB101/U3</f>
+        <v>14.867602565282764</v>
+      </c>
+      <c r="AB19" s="32">
+        <f>AB101/U28</f>
+        <v>26.895381626422427</v>
+      </c>
+      <c r="AC19" s="33">
+        <f>AB101/U106</f>
+        <v>26.686511346111477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="e">
@@ -4445,72 +4519,92 @@
         <v>-1.4808460807584294</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:O20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:O20" si="4">(F19/E19)-1</f>
         <v>-3.5024171074333164</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5303030303030303</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14624596959926306</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.20152702431183434</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.57491638795986622</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0110149488591662</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5978573295009113E-2</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16301017281529595</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.7751080198124138E-2</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43306117883905593</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" ref="P20" si="4">(P19/O19)-1</f>
+        <f t="shared" ref="P20" si="5">(P19/O19)-1</f>
         <v>9.5059704987122462E-2</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" ref="Q20" si="5">(Q19/P19)-1</f>
+        <f t="shared" ref="Q20" si="6">(Q19/P19)-1</f>
         <v>0.14553488703584927</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" ref="R20" si="6">(R19/Q19)-1</f>
+        <f t="shared" ref="R20" si="7">(R19/Q19)-1</f>
         <v>-6.2216138866421966E-2</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" ref="S20" si="7">(S19/R19)-1</f>
+        <f t="shared" ref="S20" si="8">(S19/R19)-1</f>
         <v>0.15305513169243024</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" ref="T20" si="8">(T19/S19)-1</f>
+        <f t="shared" ref="T20:Y20" si="9">(T19/S19)-1</f>
         <v>0.12399309551208293</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U20" s="16">
+        <f t="shared" si="9"/>
+        <v>0.16662400819042733</v>
+      </c>
+      <c r="V20" s="16">
+        <f t="shared" si="9"/>
+        <v>0.12681000438788947</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="9"/>
+        <v>0.11612149532710281</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" si="9"/>
+        <v>7.4453980880608395E-2</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" si="9"/>
+        <v>0.1096570983244578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2">
         <v>0.25969999999999999</v>
@@ -4566,13 +4660,39 @@
       <c r="T21" s="2">
         <v>0.66649999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U21" s="37">
+        <f>U19/U3</f>
+        <v>0.69931572002823039</v>
+      </c>
+      <c r="V21" s="37">
+        <f t="shared" ref="V21:Y21" si="10">V19/V3</f>
+        <v>0.70903970401457839</v>
+      </c>
+      <c r="W21" s="37">
+        <f t="shared" si="10"/>
+        <v>0.70892901310907741</v>
+      </c>
+      <c r="X21" s="37">
+        <f t="shared" si="10"/>
+        <v>0.71178292423612077</v>
+      </c>
+      <c r="Y21" s="37">
+        <f t="shared" si="10"/>
+        <v>0.68524162823340684</v>
+      </c>
+      <c r="AB21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC21" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="10">
         <v>452922000</v>
@@ -4628,13 +4748,21 @@
       <c r="T22" s="10">
         <v>18813000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="AB22" s="34">
+        <f>(-1*T98)/AB101</f>
+        <v>6.6106621332480808E-3</v>
+      </c>
+      <c r="AC22" s="35">
+        <f>T107/AB101</f>
+        <v>3.6900414698826857E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2">
         <v>0.17</v>
@@ -4691,12 +4819,12 @@
         <v>0.64190000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>3323000</v>
@@ -4753,12 +4881,12 @@
         <v>-677000000</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10">
         <v>456245000</v>
@@ -4815,12 +4943,12 @@
         <v>18136000000</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2">
         <v>0.17119999999999999</v>
@@ -4877,12 +5005,12 @@
         <v>0.61880000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>183296000</v>
@@ -4939,12 +5067,12 @@
         <v>3179000000</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11">
         <v>264701000</v>
@@ -5000,10 +5128,25 @@
       <c r="T28" s="11">
         <v>14957000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="38">
+        <v>18015000000</v>
+      </c>
+      <c r="V28" s="38">
+        <v>20092000000</v>
+      </c>
+      <c r="W28" s="38">
+        <v>22564000000</v>
+      </c>
+      <c r="X28" s="38">
+        <v>24140000000</v>
+      </c>
+      <c r="Y28" s="38">
+        <v>26822000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="e">
@@ -5019,72 +5162,92 @@
         <v>-3.3673280373811214</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:O29" si="9">(F28/E28)-1</f>
+        <f t="shared" ref="F29:O29" si="11">(F28/E28)-1</f>
         <v>-1.7471459304243584</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9266169154228856</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.2605184870378241</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.23061362103843552</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.41260273972602735</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.3227611940298507</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.1967871485943764E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.1636631114380287</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-5.3255372945638424E-2</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.11817726589884825</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" ref="P29" si="10">(P28/O28)-1</f>
+        <f t="shared" ref="P29" si="12">(P28/O28)-1</f>
         <v>0.53769219286460657</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" ref="Q29" si="11">(Q28/P28)-1</f>
+        <f t="shared" ref="Q29" si="13">(Q28/P28)-1</f>
         <v>0.17270167944859716</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" ref="R29" si="12">(R28/Q28)-1</f>
+        <f t="shared" ref="R29" si="14">(R28/Q28)-1</f>
         <v>-0.10049668874172191</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" ref="S29" si="13">(S28/R28)-1</f>
+        <f t="shared" ref="S29" si="15">(S28/R28)-1</f>
         <v>0.13298361862690955</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" ref="T29" si="14">(T28/S28)-1</f>
+        <f t="shared" ref="T29:Y29" si="16">(T28/S28)-1</f>
         <v>0.21492973763301104</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U29" s="16">
+        <f t="shared" si="16"/>
+        <v>0.20445276459182993</v>
+      </c>
+      <c r="V29" s="16">
+        <f t="shared" si="16"/>
+        <v>0.11529281154593396</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="16"/>
+        <v>0.12303404340035828</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" si="16"/>
+        <v>6.984577202623643E-2</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" si="16"/>
+        <v>0.11110190555095278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2">
         <v>9.9299999999999999E-2</v>
@@ -5140,13 +5303,33 @@
       <c r="T30" s="2">
         <v>0.51029999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U30" s="39">
+        <f>U28/U3</f>
+        <v>0.55279388750805492</v>
+      </c>
+      <c r="V30" s="39">
+        <f t="shared" ref="V30:Y30" si="17">V28/V3</f>
+        <v>0.55475178088243415</v>
+      </c>
+      <c r="W30" s="39">
+        <f t="shared" si="17"/>
+        <v>0.55810042047984165</v>
+      </c>
+      <c r="X30" s="39">
+        <f t="shared" si="17"/>
+        <v>0.55794388203208056</v>
+      </c>
+      <c r="Y30" s="39">
+        <f t="shared" si="17"/>
+        <v>0.53783837978744742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12">
         <v>0.09</v>
@@ -5202,13 +5385,28 @@
       <c r="T31" s="12">
         <v>7.02</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U31" s="40">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="V31" s="40">
+        <v>9.81</v>
+      </c>
+      <c r="W31" s="40">
+        <v>11.01</v>
+      </c>
+      <c r="X31" s="40">
+        <v>11.78</v>
+      </c>
+      <c r="Y31" s="40">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="12">
         <v>0.09</v>
@@ -5270,7 +5468,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1">
         <v>3100000000</v>
@@ -5332,7 +5530,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1">
         <v>3100000000</v>
@@ -5391,7 +5589,7 @@
     </row>
     <row r="35" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="e">
@@ -5399,71 +5597,71 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:O35" si="15">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:O35" si="18">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-7.7419354838709677E-3</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.4304291287386216E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.44591029023746703</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-6.7518248175182483E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-5.6751467710371817E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-0.31950207468879666</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-3.8109756097560975E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-2.6545166402535656E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.7501017501017502E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-7.870753935376968E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" ref="P35" si="16">(P34-O34)/O34</f>
+        <f t="shared" ref="P35" si="19">(P34-O34)/O34</f>
         <v>-2.7557411273486428E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" ref="Q35" si="17">(Q34-P34)/P34</f>
+        <f t="shared" ref="Q35" si="20">(Q34-P34)/P34</f>
         <v>-2.4474023185916703E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" ref="R35" si="18">(R34-Q34)/Q34</f>
+        <f t="shared" ref="R35" si="21">(R34-Q34)/Q34</f>
         <v>-2.1566901408450703E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" ref="S35" si="19">(S34-R34)/R34</f>
+        <f t="shared" ref="S35" si="22">(S34-R34)/R34</f>
         <v>-1.5744489428699954E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" ref="T35" si="20">(T34-S34)/S34</f>
+        <f t="shared" ref="T35" si="23">(T34-S34)/S34</f>
         <v>0</v>
       </c>
     </row>
@@ -5472,61 +5670,61 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="21" x14ac:dyDescent="0.25">
@@ -5534,61 +5732,61 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -5596,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>86000000</v>
@@ -5658,16 +5856,16 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>355000000</v>
@@ -5720,7 +5918,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>86000000</v>
@@ -5782,10 +5980,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1">
         <v>258035000</v>
@@ -5844,61 +6042,61 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -5906,7 +6104,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>781000000</v>
@@ -5968,7 +6166,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>867000000</v>
@@ -6030,16 +6228,16 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1">
         <v>1080000000</v>
@@ -6092,16 +6290,16 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1">
         <v>10213000000</v>
@@ -6154,16 +6352,16 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1">
         <v>10883000000</v>
@@ -6216,16 +6414,16 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1">
         <v>21096000000</v>
@@ -6278,10 +6476,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1">
         <v>701643000</v>
@@ -6340,10 +6538,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1">
         <v>237533000</v>
@@ -6352,22 +6550,22 @@
         <v>470626000</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1">
         <v>8000000</v>
@@ -6379,22 +6577,22 @@
         <v>22000000</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -6402,7 +6600,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>1038000000</v>
@@ -6464,7 +6662,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>1038000000</v>
@@ -6526,61 +6724,61 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -6588,7 +6786,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>1905000000</v>
@@ -6650,10 +6848,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1">
         <v>119075000</v>
@@ -6712,7 +6910,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>174000000</v>
@@ -6733,31 +6931,31 @@
         <v>12000000</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1">
         <v>1749000000</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1">
         <v>2999000000</v>
@@ -6774,13 +6972,13 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1">
         <v>148551000</v>
@@ -6816,19 +7014,19 @@
         <v>243000000</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -6836,16 +7034,16 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1">
         <v>37000000</v>
@@ -6872,25 +7070,25 @@
         <v>81000000</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -6898,7 +7096,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>814000000</v>
@@ -6960,7 +7158,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>988000000</v>
@@ -7022,16 +7220,16 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>41280000</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1">
         <v>55000000</v>
@@ -7043,19 +7241,19 @@
         <v>32000000</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1">
         <v>15882000000</v>
@@ -7084,61 +7282,61 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7146,16 +7344,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1">
         <v>3811000000</v>
@@ -7208,7 +7406,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>1357000000</v>
@@ -7270,7 +7468,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>1357000000</v>
@@ -7332,61 +7530,61 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7394,7 +7592,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>2345000000</v>
@@ -7456,58 +7654,58 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T68" s="1">
         <v>21869000000</v>
@@ -7518,16 +7716,16 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1">
         <v>186000000</v>
@@ -7580,10 +7778,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1">
         <v>582814000</v>
@@ -7642,13 +7840,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>-440000000</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1">
         <v>-500999000</v>
@@ -7696,7 +7894,7 @@
         <v>18722000000</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7704,7 +7902,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>-440000000</v>
@@ -7766,7 +7964,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>1905000000</v>
@@ -7828,61 +8026,61 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="21" x14ac:dyDescent="0.25">
@@ -7890,61 +8088,61 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7952,7 +8150,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1">
         <v>264701000</v>
@@ -8014,7 +8212,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>135528000</v>
@@ -8076,7 +8274,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1">
         <v>85186000</v>
@@ -8138,16 +8336,16 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1">
         <v>74000000</v>
@@ -8197,82 +8395,82 @@
     </row>
     <row r="80" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:T80" si="21">B79/B3</f>
+        <f t="shared" ref="B80:T80" si="24">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.181542391825004E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.6640138908985674E-2</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.6243025418474891E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.6760992599042228E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.4106131849150754E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.5197826456104601E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.3541174618170367E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.3472622478386168E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.4653229014719533E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.2800958710099139E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.5866854286962006E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.7713365539452495E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.9042387622448045E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.2484961626218627E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.0539065165472534E-2</v>
       </c>
     </row>
@@ -8281,7 +8479,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>-732807000</v>
@@ -8343,16 +8541,16 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1">
         <v>-14285000</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1">
         <v>-24000000</v>
@@ -8405,79 +8603,79 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA83" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB83" s="62"/>
+        <v>91</v>
+      </c>
+      <c r="AA83" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB83" s="43"/>
     </row>
     <row r="84" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1">
         <v>56580000</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1">
         <v>-20491000</v>
@@ -8527,17 +8725,17 @@
       <c r="T84" s="1">
         <v>67000000</v>
       </c>
-      <c r="AA84" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB84" s="64"/>
+      <c r="AA84" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB84" s="44"/>
     </row>
     <row r="85" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1">
         <v>-627700000</v>
@@ -8593,10 +8791,10 @@
       <c r="T85" s="1">
         <v>-9351000000</v>
       </c>
-      <c r="AA85" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB85" s="24">
+      <c r="AA85" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB85" s="46">
         <f>T17</f>
         <v>538000000</v>
       </c>
@@ -8606,7 +8804,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1">
         <v>728021000</v>
@@ -8662,10 +8860,10 @@
       <c r="T86" s="1">
         <v>10422000000</v>
       </c>
-      <c r="AA86" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB86" s="24">
+      <c r="AA86" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB86" s="46">
         <f>T56</f>
         <v>2250000000</v>
       </c>
@@ -8675,7 +8873,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10">
         <v>480629000</v>
@@ -8731,10 +8929,10 @@
       <c r="T87" s="10">
         <v>18849000000</v>
       </c>
-      <c r="AA87" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB87" s="24">
+      <c r="AA87" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB87" s="46">
         <f>T61</f>
         <v>20200000000</v>
       </c>
@@ -8744,13 +8942,13 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1">
         <v>-119267000</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1">
         <v>-159960000</v>
@@ -8800,98 +8998,98 @@
       <c r="T88" s="1">
         <v>-970000000</v>
       </c>
-      <c r="AA88" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB88" s="33">
+      <c r="AA88" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB88" s="48">
         <f>AB85/(AB86+AB87)</f>
         <v>2.396436525612472E-2</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:T89" si="25">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="25"/>
+        <v>4.4759729866152773E-2</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="25"/>
+        <v>4.4559635143612615E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="25"/>
+        <v>6.6262174676672517E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="25"/>
+        <v>4.427723918390971E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="25"/>
+        <v>2.9882207067575946E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="25"/>
+        <v>3.8419677840661734E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="25"/>
+        <v>3.6080990308031857E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="25"/>
+        <v>3.2902467685076382E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="25"/>
+        <v>3.3690378101254234E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="25"/>
+        <v>2.924704418170504E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="25"/>
+        <v>3.3094506994199933E-2</v>
+      </c>
+      <c r="AA89" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:T89" si="22">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="22"/>
-        <v>4.4759729866152773E-2</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="22"/>
-        <v>4.4559635143612615E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="22"/>
-        <v>6.6262174676672517E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="22"/>
-        <v>4.427723918390971E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="22"/>
-        <v>2.9882207067575946E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="22"/>
-        <v>3.8419677840661734E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="22"/>
-        <v>3.6080990308031857E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="22"/>
-        <v>3.2902467685076382E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="22"/>
-        <v>3.3690378101254234E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="22"/>
-        <v>2.924704418170504E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="22"/>
-        <v>3.3094506994199933E-2</v>
-      </c>
-      <c r="AA89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB89" s="24">
+      <c r="AB89" s="46">
         <f>T27</f>
         <v>3179000000</v>
       </c>
@@ -8901,22 +9099,22 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1">
         <v>97424000</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1">
         <v>-2500000</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1">
         <v>-1805000000</v>
@@ -8928,7 +9126,7 @@
         <v>-3000000</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1">
         <v>-149000000</v>
@@ -8957,10 +9155,10 @@
       <c r="T90" s="1">
         <v>-1948000000</v>
       </c>
-      <c r="AA90" s="23" t="s">
+      <c r="AA90" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AB90" s="24">
+      <c r="AB90" s="46">
         <f>T25</f>
         <v>18136000000</v>
       </c>
@@ -8970,7 +9168,7 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1">
         <v>-1896715000</v>
@@ -9026,10 +9224,10 @@
       <c r="T91" s="1">
         <v>-6083000000</v>
       </c>
-      <c r="AA91" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB91" s="33">
+      <c r="AA91" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB91" s="48">
         <f>AB89/AB90</f>
         <v>0.17528672254080283</v>
       </c>
@@ -9039,7 +9237,7 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1">
         <v>1425427000</v>
@@ -9095,10 +9293,10 @@
       <c r="T92" s="1">
         <v>4585000000</v>
       </c>
-      <c r="AA92" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB92" s="35">
+      <c r="AA92" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB92" s="48">
         <f>AB88*(1-AB91)</f>
         <v>1.9763730212607931E-2</v>
       </c>
@@ -9108,7 +9306,7 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>20000000</v>
@@ -9129,7 +9327,7 @@
         <v>94000000</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1">
         <v>2000000</v>
@@ -9164,17 +9362,17 @@
       <c r="T93" s="1">
         <v>128000000</v>
       </c>
-      <c r="AA93" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB93" s="64"/>
+      <c r="AA93" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB93" s="44"/>
     </row>
     <row r="94" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10">
         <v>-473131000</v>
@@ -9230,11 +9428,12 @@
       <c r="T94" s="10">
         <v>-4288000000</v>
       </c>
-      <c r="AA94" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB94" s="36">
-        <v>4.095E-2</v>
+      <c r="AA94" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB94" s="67">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9242,7 +9441,7 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1">
         <v>-33768000</v>
@@ -9272,25 +9471,25 @@
         <v>-6000000</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1">
         <v>-1750000000</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1">
         <v>-3000000000</v>
@@ -9298,12 +9497,12 @@
       <c r="T95" s="1">
         <v>-1000000000</v>
       </c>
-      <c r="AA95" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB95" s="56" cm="1">
+      <c r="AA95" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB95" s="50" cm="1">
         <f t="array" ref="AB95">_FV(A1,"Beta")</f>
-        <v>0.96489999999999998</v>
+        <v>0.97019999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9311,66 +9510,66 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>19100000000</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA96" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB96" s="36">
+        <v>91</v>
+      </c>
+      <c r="AA96" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB96" s="49">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -9379,16 +9578,16 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-13446000000</v>
@@ -9435,12 +9634,12 @@
       <c r="T97" s="1">
         <v>-11589000000</v>
       </c>
-      <c r="AA97" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB97" s="35">
+      <c r="AA97" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB97" s="48">
         <f>(AB94)+((AB95)*(AB96-AB94))</f>
-        <v>8.2488945000000008E-2</v>
+        <v>8.2703104E-2</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9448,16 +9647,16 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-93000000</v>
@@ -9504,26 +9703,26 @@
       <c r="T98" s="1">
         <v>-3203000000</v>
       </c>
-      <c r="AA98" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB98" s="64"/>
+      <c r="AA98" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB98" s="44"/>
     </row>
     <row r="99" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1">
         <v>-12198000</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>-1913000000</v>
@@ -9570,10 +9769,10 @@
       <c r="T99" s="1">
         <v>3096000000</v>
       </c>
-      <c r="AA99" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB99" s="24">
+      <c r="AA99" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB99" s="46">
         <f>AB86+AB87</f>
         <v>22450000000</v>
       </c>
@@ -9583,7 +9782,7 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10">
         <v>-45966000</v>
@@ -9639,12 +9838,12 @@
       <c r="T100" s="10">
         <v>-12696000000</v>
       </c>
-      <c r="AA100" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB100" s="33">
+      <c r="AA100" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB100" s="48">
         <f>AB99/AB103</f>
-        <v>4.5237125301882258E-2</v>
+        <v>4.4282672969205496E-2</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9652,16 +9851,16 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>-5000000</v>
@@ -9679,7 +9878,7 @@
         <v>7000000</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1">
         <v>-1000000</v>
@@ -9708,12 +9907,12 @@
       <c r="T101" s="1">
         <v>-1287000000</v>
       </c>
-      <c r="AA101" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB101" s="48" cm="1">
+      <c r="AA101" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB101" s="51" cm="1">
         <f t="array" ref="AB101">_FV(A1,"Market cap",TRUE)</f>
-        <v>473823798350</v>
+        <v>484520300000</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9721,7 +9920,7 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10">
         <v>-38468000</v>
@@ -9777,12 +9976,12 @@
       <c r="T102" s="10">
         <v>578000000</v>
       </c>
-      <c r="AA102" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB102" s="33">
+      <c r="AA102" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB102" s="48">
         <f>AB101/AB103</f>
-        <v>0.95476287469811771</v>
+        <v>0.95571732703079448</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9790,7 +9989,7 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1">
         <v>173865000</v>
@@ -9846,20 +10045,20 @@
       <c r="T103" s="1">
         <v>19799000000</v>
       </c>
-      <c r="AA103" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB103" s="37">
+      <c r="AA103" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB103" s="52">
         <f>AB99+AB101</f>
-        <v>496273798350</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+        <v>506970300000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11">
         <v>135397000</v>
@@ -9915,350 +10114,417 @@
       <c r="T104" s="11">
         <v>20377000000</v>
       </c>
-      <c r="AA104" s="63" t="s">
+      <c r="AA104" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB104" s="44"/>
+    </row>
+    <row r="105" spans="1:28" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ref="C105:S105" si="26">((C22*(1-$AB$91))+C77+C88+C81)</f>
+        <v>-343015212.94662547</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="26"/>
+        <v>-1775635772.110719</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="26"/>
+        <v>-2499953242.170269</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="26"/>
+        <v>-424164424.34936047</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="26"/>
+        <v>1473609230.2602558</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="26"/>
+        <v>2400635641.81738</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="26"/>
+        <v>-378938299.51477718</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="26"/>
+        <v>6099415.5271282196</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="26"/>
+        <v>5530818096.6034412</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="26"/>
+        <v>4424201146.8901634</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="26"/>
+        <v>3477214766.2108517</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="26"/>
+        <v>5991318041.4644909</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="26"/>
+        <v>8639335796.20644</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="26"/>
+        <v>5968523875.1654167</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="26"/>
+        <v>3245787659.902956</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="26"/>
+        <v>6430768636.9651527</v>
+      </c>
+      <c r="T105" s="1">
+        <f>((T22*(1-$AB$91))+T77+T88+T81)</f>
+        <v>7749330888.8398762</v>
+      </c>
+      <c r="U105" s="31">
+        <f>T105*(1+$AB$106)</f>
+        <v>8620833882.7144489</v>
+      </c>
+      <c r="V105" s="31">
+        <f t="shared" ref="V105:Y105" si="27">U105*(1+$AB$106)</f>
+        <v>9590347592.5111103</v>
+      </c>
+      <c r="W105" s="31">
+        <f t="shared" si="27"/>
+        <v>10668894470.823915</v>
+      </c>
+      <c r="X105" s="31">
+        <f t="shared" si="27"/>
+        <v>11868736574.100897</v>
+      </c>
+      <c r="Y105" s="31">
+        <f t="shared" si="27"/>
+        <v>13203514970.611732</v>
+      </c>
+      <c r="Z105" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA105" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB105" s="54">
+        <f>(AB100*AB92)+(AB102*AB97)</f>
+        <v>7.9915980293686323E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>0.2024175203812244</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>0.16257238071566005</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>-0.77036387427818043</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>1.1724137931034484</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>8.7222222222222214</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>0.4363265306122448</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>0.31656720659278204</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>-0.44938484783077914</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>1.6076048608388867</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>-7.2459410703547777E-2</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-0.18136142625607776</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>0.68303306275984954</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>0.41101046935654639</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>2.7511463109628487E-3</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>-0.19321582973062856</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>0.49649629018961261</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>0.23116650599091026</v>
+      </c>
+      <c r="U106" s="68">
+        <v>18156000000</v>
+      </c>
+      <c r="V106" s="68">
+        <v>20373000000</v>
+      </c>
+      <c r="W106" s="68">
+        <v>22743000000</v>
+      </c>
+      <c r="X106" s="68">
+        <v>23990000000</v>
+      </c>
+      <c r="Y106" s="68">
+        <v>27360000000</v>
+      </c>
+      <c r="Z106" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA106" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB106" s="56">
+        <f>(SUM(U4:Y4)/5)</f>
+        <v>0.11246170880761577</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1">
+        <v>361362000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>434508000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>505147000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>116000000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>252000000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>2450000000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>3519000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>4633000000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>2551000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>6652000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>6170000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>5051000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>8501000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>11995000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>12028000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>9704000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>14522000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>17879000000</v>
+      </c>
+      <c r="U107" s="28"/>
+      <c r="V107" s="28"/>
+      <c r="W107" s="28"/>
+      <c r="X107" s="28"/>
+      <c r="Y107" s="69">
+        <f>Y106*(1+AB107)/(AB108-AB107)</f>
+        <v>510671025993.21545</v>
+      </c>
+      <c r="Z107" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="AB104" s="64"/>
-    </row>
-    <row r="105" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.2024175203812244</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.16257238071566005</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-0.77036387427818043</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>1.1724137931034484</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:O105" si="23">(H106/G106)-1</f>
-        <v>8.7222222222222214</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="23"/>
-        <v>0.4363265306122448</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="23"/>
-        <v>0.31656720659278204</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="23"/>
-        <v>-0.44938484783077914</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="23"/>
-        <v>1.6076048608388867</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="23"/>
-        <v>-7.2459410703547777E-2</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="23"/>
-        <v>-0.18136142625607776</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="23"/>
-        <v>0.68303306275984954</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" ref="P105" si="24">(P106/O106)-1</f>
-        <v>0.41101046935654639</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" ref="Q105" si="25">(Q106/P106)-1</f>
-        <v>2.7511463109628487E-3</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" ref="R105" si="26">(R106/Q106)-1</f>
-        <v>-0.19321582973062856</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" ref="S105" si="27">(S106/R106)-1</f>
-        <v>0.49649629018961261</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" ref="T105" si="28">(T106/S106)-1</f>
-        <v>0.23116650599091026</v>
-      </c>
-      <c r="U105" s="15"/>
-      <c r="V105" s="15"/>
-      <c r="W105" s="15"/>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB105" s="26">
-        <f>(AB100*AB92)+(AB102*AB97)</f>
-        <v>7.9651436599075282E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1">
-        <v>361362000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>434508000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>505147000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>116000000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>252000000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>2450000000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>3519000000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>4633000000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>2551000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>6652000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>6170000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>5051000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>8501000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>11995000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>12028000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>9704000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>14522000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>17879000000</v>
-      </c>
-      <c r="U106" s="55">
-        <f>T106*(1+$AB$106)</f>
-        <v>19894539961.569832</v>
-      </c>
-      <c r="V106" s="55">
-        <f t="shared" ref="V106:Y106" si="29">U106*(1+$AB$106)</f>
-        <v>22137296285.166897</v>
-      </c>
-      <c r="W106" s="55">
-        <f t="shared" si="29"/>
-        <v>24632883583.330399</v>
-      </c>
-      <c r="X106" s="55">
-        <f t="shared" si="29"/>
-        <v>27409804061.595394</v>
-      </c>
-      <c r="Y106" s="55">
-        <f t="shared" si="29"/>
-        <v>30499773043.358612</v>
-      </c>
-      <c r="Z106" s="38" t="s">
+      <c r="AA107" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="AA106" s="39" t="s">
+      <c r="AB107" s="58">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U108" s="69">
+        <f t="shared" ref="U108:X108" si="28">U107+U106</f>
+        <v>18156000000</v>
+      </c>
+      <c r="V108" s="69">
+        <f t="shared" si="28"/>
+        <v>20373000000</v>
+      </c>
+      <c r="W108" s="69">
+        <f t="shared" si="28"/>
+        <v>22743000000</v>
+      </c>
+      <c r="X108" s="69">
+        <f t="shared" si="28"/>
+        <v>23990000000</v>
+      </c>
+      <c r="Y108" s="69">
+        <f>Y107+Y106</f>
+        <v>538031025993.21545</v>
+      </c>
+      <c r="Z108" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA108" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="AB106" s="40">
-        <f>(SUM(U4:Y4)/5)</f>
-        <v>0.11273225356954138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="38"/>
-      <c r="V107" s="38"/>
-      <c r="W107" s="38"/>
-      <c r="X107" s="38"/>
-      <c r="Y107" s="41">
-        <f>Y106*(1+AB107)/(AB108-AB107)</f>
-        <v>572030111464.10632</v>
-      </c>
-      <c r="Z107" s="42" t="s">
+      <c r="AB108" s="56">
+        <f>AB105</f>
+        <v>7.9915980293686323E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U109" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="AA107" s="43" t="s">
+      <c r="V109" s="60"/>
+    </row>
+    <row r="110" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U110" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="AB107" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U108" s="41">
-        <f t="shared" ref="U108:W108" si="30">U107+U106</f>
-        <v>19894539961.569832</v>
-      </c>
-      <c r="V108" s="41">
-        <f t="shared" si="30"/>
-        <v>22137296285.166897</v>
-      </c>
-      <c r="W108" s="41">
-        <f t="shared" si="30"/>
-        <v>24632883583.330399</v>
-      </c>
-      <c r="X108" s="41">
-        <f>X107+X106</f>
-        <v>27409804061.595394</v>
-      </c>
-      <c r="Y108" s="41">
-        <f>Y107+Y106</f>
-        <v>602529884507.46497</v>
-      </c>
-      <c r="Z108" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA108" s="45" t="s">
+      <c r="V110" s="51">
+        <f>NPV(AB108,U108,V108,W108,X108,Y108)</f>
+        <v>436296239972.44263</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U111" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="AB108" s="46">
-        <f>AB105</f>
-        <v>7.9651436599075282E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U109" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="V109" s="60"/>
-    </row>
-    <row r="110" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U110" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="V110" s="48">
-        <f>NPV(AB108,U108,V108,W108,X108,Y108)</f>
-        <v>487898711853.00946</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U111" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="V111" s="48">
+      <c r="V111" s="51">
         <f>T40</f>
         <v>18522000000</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U112" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="V112" s="48">
+      <c r="U112" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="V112" s="51">
         <f>AB99</f>
         <v>22450000000</v>
       </c>
     </row>
     <row r="113" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U113" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="V113" s="48">
+      <c r="U113" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="V113" s="51">
         <f>V110+V111-V112</f>
-        <v>483970711853.00946</v>
+        <v>432368239972.44263</v>
       </c>
     </row>
     <row r="114" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U114" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="V114" s="49">
+      <c r="U114" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="V114" s="61">
         <f>T34*(1+(5*Z16))</f>
         <v>1992517898.2511404</v>
       </c>
     </row>
     <row r="115" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U115" s="50" t="s">
+      <c r="U115" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="V115" s="63">
+        <f>V113/V114</f>
+        <v>216.99591273530743</v>
+      </c>
+    </row>
+    <row r="116" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U116" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="V116" s="64" cm="1">
+        <f t="array" ref="V116">_FV(A1,"Price")</f>
+        <v>236.45</v>
+      </c>
+    </row>
+    <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U117" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="V117" s="65">
+        <f>V115/V116-1</f>
+        <v>-8.2275691540251938E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U118" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="V115" s="58">
-        <f>V113/V114</f>
-        <v>242.89403486804162</v>
-      </c>
-    </row>
-    <row r="116" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U116" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="V116" s="57" cm="1">
-        <f t="array" ref="V116">_FV(A1,"Price")</f>
-        <v>231.23</v>
-      </c>
-    </row>
-    <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U117" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="V117" s="52">
-        <f>V115/V116-1</f>
-        <v>5.0443432374871922E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U118" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="V118" s="53" t="str">
+      <c r="V118" s="66" t="str">
         <f>IF(V115&gt;V116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
@@ -10311,8 +10577,9 @@
     <hyperlink ref="T36" r:id="rId38" tooltip="https://www.sec.gov/Archives/edgar/data/1403161/000140316122000081/0001403161-22-000081-index.htm" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="T74" r:id="rId39" tooltip="https://www.sec.gov/Archives/edgar/data/1403161/000140316122000081/0001403161-22-000081-index.htm" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="U1" r:id="rId40" display="https://finbox.com/NYSE:V/explorer/revenue_proj" xr:uid="{8B489DD0-81E2-324F-A099-71AE7B91685A}"/>
+    <hyperlink ref="Z106" r:id="rId41" xr:uid="{CB0E0F15-789B-A54F-A854-11458E4C93FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId41"/>
+  <drawing r:id="rId42"/>
 </worksheet>
 </file>
--- a/Financial Services/Visa.xlsx
+++ b/Financial Services/Visa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D977A2FA-DE61-1645-8595-C3DB6AD80CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC6D1EB-301B-4F48-9706-566F4D9F863A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -504,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>FCF Growth Rate</t>
-  </si>
-  <si>
     <t>Terminal Value</t>
   </si>
   <si>
@@ -558,9 +555,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -570,10 +564,19 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>5Y Fwd Revenue CAGR</t>
   </si>
 </sst>
 </file>
@@ -586,10 +589,10 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +704,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -922,30 +932,16 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -956,62 +952,123 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,18 +1121,9 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Visa</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.47784462809917355"/>
-          <c:y val="2.6335040234089245E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1109,15 +1157,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10021818181818182"/>
-          <c:y val="0.14424298279467079"/>
-          <c:w val="0.84424462809917356"/>
-          <c:h val="0.66301309263920649"/>
+          <c:x val="9.6991735537190066E-2"/>
+          <c:y val="0.1584412876108468"/>
+          <c:w val="0.82102479338842971"/>
+          <c:h val="0.62984237793913733"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1169,12 +1217,90 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$3:$T$3</c:f>
+              <c:f>'Sheet 1'!$C$3:$Y$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2664605000</c:v>
                 </c:pt>
@@ -1228,13 +1354,28 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>29310000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32610000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36218000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40430000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43266000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49870000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-726B-D64C-9064-CC084E4B5813}"/>
+              <c16:uniqueId val="{00000000-A714-9E4A-BCFE-D1B6E2536A9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1243,11 +1384,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19:$B$19</c:f>
+              <c:f>'Sheet 1'!$A$28:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1288,72 +1429,165 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$19:$T$19</c:f>
+              <c:f>'Sheet 1'!$C$28:$Y$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>692010000</c:v>
+                  <c:v>264701000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1426105000</c:v>
+                  <c:v>454561000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-685737000</c:v>
+                  <c:v>-1076095000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1716000000</c:v>
+                  <c:v>804000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4342000000</c:v>
+                  <c:v>2353000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4977000000</c:v>
+                  <c:v>2966000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5980000000</c:v>
+                  <c:v>3650000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2542000000</c:v>
+                  <c:v>2144000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7654000000</c:v>
+                  <c:v>4980000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8159000000</c:v>
+                  <c:v>5438000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9489000000</c:v>
+                  <c:v>6328000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8941000000</c:v>
+                  <c:v>5991000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12813000000</c:v>
+                  <c:v>6699000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14031000000</c:v>
+                  <c:v>10301000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16073000000</c:v>
+                  <c:v>12080000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15073000000</c:v>
+                  <c:v>10866000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17380000000</c:v>
+                  <c:v>12311000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19535000000</c:v>
+                  <c:v>14957000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18015000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20092000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22564000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24140000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26822000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-726B-D64C-9064-CC084E4B5813}"/>
+              <c16:uniqueId val="{00000001-A714-9E4A-BCFE-D1B6E2536A9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1407,12 +1641,90 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$107:$T$107</c:f>
+              <c:f>'Sheet 1'!$C$107:$Y$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>361362000</c:v>
                 </c:pt>
@@ -1466,13 +1778,28 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>17879000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18310000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20381000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22763000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24214000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27342000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-726B-D64C-9064-CC084E4B5813}"/>
+              <c16:uniqueId val="{00000002-A714-9E4A-BCFE-D1B6E2536A9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1484,13 +1811,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="914216896"/>
-        <c:axId val="925176640"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="511437807"/>
+        <c:axId val="511366975"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="914216896"/>
+        <c:axId val="511437807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,7 +1845,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1530,7 +1857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="925176640"/>
+        <c:crossAx val="511366975"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1538,7 +1865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="925176640"/>
+        <c:axId val="511366975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1587,7 +1914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914216896"/>
+        <c:crossAx val="511437807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1605,10 +1932,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32202116223075422"/>
-          <c:y val="0.89905339008922347"/>
-          <c:w val="0.36389145571679571"/>
-          <c:h val="5.9980991768859911E-2"/>
+          <c:x val="0.31269093512071322"/>
+          <c:y val="0.8923310303706109"/>
+          <c:w val="0.37461812975857356"/>
+          <c:h val="6.5885115406701666E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1715,7 +2042,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1953,7 +2280,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2188,22 +2514,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>41274</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB9B3A3-47C0-5FB7-CF5C-9EED1C613AF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF21D19E-663C-3987-3B55-B2FC2DE21E23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,38 +2557,48 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0480000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2388,13 +2724,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>240</v>
-    <v>174.6</v>
-    <v>0.97019999999999995</v>
-    <v>-2.4300000000000002</v>
-    <v>-1.0172E-2</v>
-    <v>0.05</v>
-    <v>2.1149999999999999E-4</v>
+    <v>250.06</v>
+    <v>184.755</v>
+    <v>0.9526</v>
+    <v>-3.66</v>
+    <v>-1.5411999999999999E-2</v>
+    <v>-0.79</v>
+    <v>-3.3789999999999996E-3</v>
     <v>USD</v>
     <v>Visa Inc. (Visa) is a global payments technology company. The Company provides digital payments across more than 200 countries and territories. The Company connects consumers, merchants, financial institutions, businesses, strategic partners and government entities through technologies. The Company operates through the payment services segment. The Company provides transaction processing services, including primarily authorization, clearing and settlement to its financial institution and merchant clients through VisaNet, its transaction processing network. Its core business solutions, including credit, debit, prepaid and cash access programs for individual, business and government account holders. It also provides value-added services to its clients, including issuing solutions, acceptance solutions, risk and identity solutions, open banking and advisory services. It also offers products and solutions that facilitate money movement for all participants in the ecosystem.</v>
     <v>26500</v>
@@ -2402,25 +2738,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>P.O. Box 8999, SAN FRANCISCO, CA, 94128-8999 US</v>
-    <v>238.44</v>
+    <v>237.92</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.999501053127</v>
+    <v>45218.993799270313</v>
     <v>0</v>
-    <v>236.13</v>
-    <v>484520300000</v>
+    <v>233.405</v>
+    <v>475887755410</v>
     <v>VISA INC.</v>
     <v>VISA INC.</v>
-    <v>236.73</v>
-    <v>31.611000000000001</v>
-    <v>238.88</v>
-    <v>236.45</v>
-    <v>236.5</v>
-    <v>2049145000</v>
+    <v>237.47</v>
+    <v>30.1358</v>
+    <v>237.47</v>
+    <v>233.81</v>
+    <v>233.02</v>
+    <v>2035361000</v>
     <v>V</v>
     <v>VISA INC. (XNYS:V)</v>
-    <v>5729515</v>
-    <v>7754726</v>
+    <v>5927439</v>
+    <v>6188978</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2585,9 +2921,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3005,13 +3341,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC118"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomRight" activeCell="W90" sqref="W90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3237,7 +3573,7 @@
         <v>29310000000</v>
       </c>
       <c r="U3" s="24">
-        <v>32589000000</v>
+        <v>32610000000</v>
       </c>
       <c r="V3" s="24">
         <v>36218000000</v>
@@ -3342,23 +3678,23 @@
         <v>0.21593030491599263</v>
       </c>
       <c r="U4" s="16">
-        <f t="shared" ref="F4:Y4" si="1">(U3/T3)-1</f>
-        <v>0.11187308085977477</v>
+        <f>(U3/T3)-1</f>
+        <v>0.11258955987717512</v>
       </c>
       <c r="V4" s="16">
-        <f t="shared" si="1"/>
-        <v>0.11135659271533349</v>
+        <f>(V3/U3)-1</f>
+        <v>0.11064090769702539</v>
       </c>
       <c r="W4" s="16">
-        <f t="shared" si="1"/>
+        <f>(W3/V3)-1</f>
         <v>0.11629576453697066</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" si="1"/>
+        <f>(X3/W3)-1</f>
         <v>7.0145931239178783E-2</v>
       </c>
       <c r="Y4" s="16">
-        <f t="shared" si="1"/>
+        <f>(Y3/X3)-1</f>
         <v>0.15263717468682114</v>
       </c>
       <c r="Z4" s="17">
@@ -3504,13 +3840,13 @@
       <c r="Z6" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AA6" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AC6" s="60" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3580,16 +3916,16 @@
         <v>0.8044</v>
       </c>
       <c r="AA7" s="20">
-        <f>T21</f>
-        <v>0.66649999999999998</v>
+        <f>U21</f>
+        <v>0.69886537871818466</v>
       </c>
       <c r="AB7" s="20">
-        <f>T30</f>
-        <v>0.51029999999999998</v>
+        <f>U30</f>
+        <v>0.55243790248390068</v>
       </c>
       <c r="AC7" s="20">
-        <f>T107/T3</f>
-        <v>0.60999658819515523</v>
+        <f>U107/U3</f>
+        <v>0.56148420729837478</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -3663,75 +3999,75 @@
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:T9" si="2">C8/C3</f>
+        <f t="shared" ref="C9:T9" si="1">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z9" s="18" t="s">
@@ -3970,75 +4306,75 @@
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:T13" si="3">C12/C3</f>
+        <f t="shared" ref="C13:T13" si="2">C12/C3</f>
         <v>0.42120239209939186</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.22288565685455777</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.22057827241436562</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.28516685294587257</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.23281724786572131</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.19950402975821452</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.17642577274706139</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.16399577775645333</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.14764815758193242</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.13659266257282318</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.12644092219020173</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.13618883437209919</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.13024294585466825</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.12513950215925082</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.11990251120685903</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.11329305135951662</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.10470856668740926</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.10354827703855339</v>
       </c>
       <c r="Z13" s="17">
@@ -4259,17 +4595,17 @@
         <f>(T35+S35+R35+Q35+P35)/5</f>
         <v>-1.7868565059310757E-2</v>
       </c>
-      <c r="AA16" s="26">
-        <f>AB101/T3</f>
-        <v>16.530887069259638</v>
-      </c>
-      <c r="AB16" s="26">
-        <f>AB101/T28</f>
-        <v>32.394216754696799</v>
-      </c>
-      <c r="AC16" s="27">
-        <f>AB101/T107</f>
-        <v>27.099966441076123</v>
+      <c r="AA16" s="27">
+        <f>AB102/T3</f>
+        <v>16.236361494711701</v>
+      </c>
+      <c r="AB16" s="27">
+        <f>AB102/T28</f>
+        <v>31.817059263889817</v>
+      </c>
+      <c r="AC16" s="28">
+        <f>AB102/T107</f>
+        <v>26.617134929805918</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4396,16 +4732,16 @@
         <v>861000000</v>
       </c>
       <c r="Z18" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA18" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="AA18" s="19" t="s">
+      <c r="AB18" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="AB18" s="19" t="s">
+      <c r="AC18" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="AC18" s="19" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4469,36 +4805,36 @@
       <c r="T19" s="10">
         <v>19535000000</v>
       </c>
-      <c r="U19" s="36">
+      <c r="U19" s="30">
         <v>22790000000</v>
       </c>
-      <c r="V19" s="36">
+      <c r="V19" s="30">
         <v>25680000000</v>
       </c>
-      <c r="W19" s="36">
+      <c r="W19" s="30">
         <v>28662000000</v>
       </c>
-      <c r="X19" s="36">
+      <c r="X19" s="30">
         <v>30796000000</v>
       </c>
-      <c r="Y19" s="36">
+      <c r="Y19" s="30">
         <v>34173000000</v>
       </c>
-      <c r="Z19" s="30">
+      <c r="Z19" s="26">
         <f>T40-T56-T61</f>
         <v>-3928000000</v>
       </c>
-      <c r="AA19" s="32">
-        <f>AB101/U3</f>
-        <v>14.867602565282764</v>
-      </c>
-      <c r="AB19" s="32">
-        <f>AB101/U28</f>
-        <v>26.895381626422427</v>
-      </c>
-      <c r="AC19" s="33">
-        <f>AB101/U106</f>
-        <v>26.686511346111477</v>
+      <c r="AA19" s="27">
+        <f>AB102/U3</f>
+        <v>14.593307433609322</v>
+      </c>
+      <c r="AB19" s="27">
+        <f>AB102/U28</f>
+        <v>26.416195137940605</v>
+      </c>
+      <c r="AC19" s="28">
+        <f>AB102/U107</f>
+        <v>25.990592867831786</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4519,83 +4855,83 @@
         <v>-1.4808460807584294</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:O20" si="4">(F19/E19)-1</f>
+        <f t="shared" ref="F20:O20" si="3">(F19/E19)-1</f>
         <v>-3.5024171074333164</v>
       </c>
       <c r="G20" s="15">
+        <f t="shared" si="3"/>
+        <v>1.5303030303030303</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="3"/>
+        <v>0.14624596959926306</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="3"/>
+        <v>0.20152702431183434</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.57491638795986622</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="3"/>
+        <v>2.0110149488591662</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="3"/>
+        <v>6.5978573295009113E-2</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="3"/>
+        <v>0.16301017281529595</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="3"/>
+        <v>-5.7751080198124138E-2</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="3"/>
+        <v>0.43306117883905593</v>
+      </c>
+      <c r="P20" s="15">
+        <f>(P19/O19)-1</f>
+        <v>9.5059704987122462E-2</v>
+      </c>
+      <c r="Q20" s="15">
+        <f>(Q19/P19)-1</f>
+        <v>0.14553488703584927</v>
+      </c>
+      <c r="R20" s="15">
+        <f>(R19/Q19)-1</f>
+        <v>-6.2216138866421966E-2</v>
+      </c>
+      <c r="S20" s="15">
+        <f>(S19/R19)-1</f>
+        <v>0.15305513169243024</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" ref="T20:Y20" si="4">(T19/S19)-1</f>
+        <v>0.12399309551208293</v>
+      </c>
+      <c r="U20" s="16">
         <f t="shared" si="4"/>
-        <v>1.5303030303030303</v>
-      </c>
-      <c r="H20" s="15">
+        <v>0.16662400819042733</v>
+      </c>
+      <c r="V20" s="16">
         <f t="shared" si="4"/>
-        <v>0.14624596959926306</v>
-      </c>
-      <c r="I20" s="15">
+        <v>0.12681000438788947</v>
+      </c>
+      <c r="W20" s="16">
         <f t="shared" si="4"/>
-        <v>0.20152702431183434</v>
-      </c>
-      <c r="J20" s="15">
+        <v>0.11612149532710281</v>
+      </c>
+      <c r="X20" s="16">
         <f t="shared" si="4"/>
-        <v>-0.57491638795986622</v>
-      </c>
-      <c r="K20" s="15">
+        <v>7.4453980880608395E-2</v>
+      </c>
+      <c r="Y20" s="16">
         <f t="shared" si="4"/>
-        <v>2.0110149488591662</v>
-      </c>
-      <c r="L20" s="15">
-        <f t="shared" si="4"/>
-        <v>6.5978573295009113E-2</v>
-      </c>
-      <c r="M20" s="15">
-        <f t="shared" si="4"/>
-        <v>0.16301017281529595</v>
-      </c>
-      <c r="N20" s="15">
-        <f t="shared" si="4"/>
-        <v>-5.7751080198124138E-2</v>
-      </c>
-      <c r="O20" s="15">
-        <f t="shared" si="4"/>
-        <v>0.43306117883905593</v>
-      </c>
-      <c r="P20" s="15">
-        <f t="shared" ref="P20" si="5">(P19/O19)-1</f>
-        <v>9.5059704987122462E-2</v>
-      </c>
-      <c r="Q20" s="15">
-        <f t="shared" ref="Q20" si="6">(Q19/P19)-1</f>
-        <v>0.14553488703584927</v>
-      </c>
-      <c r="R20" s="15">
-        <f t="shared" ref="R20" si="7">(R19/Q19)-1</f>
-        <v>-6.2216138866421966E-2</v>
-      </c>
-      <c r="S20" s="15">
-        <f t="shared" ref="S20" si="8">(S19/R19)-1</f>
-        <v>0.15305513169243024</v>
-      </c>
-      <c r="T20" s="15">
-        <f t="shared" ref="T20:Y20" si="9">(T19/S19)-1</f>
-        <v>0.12399309551208293</v>
-      </c>
-      <c r="U20" s="16">
-        <f t="shared" si="9"/>
-        <v>0.16662400819042733</v>
-      </c>
-      <c r="V20" s="16">
-        <f t="shared" si="9"/>
-        <v>0.12681000438788947</v>
-      </c>
-      <c r="W20" s="16">
-        <f t="shared" si="9"/>
-        <v>0.11612149532710281</v>
-      </c>
-      <c r="X20" s="16">
-        <f t="shared" si="9"/>
-        <v>7.4453980880608395E-2</v>
-      </c>
-      <c r="Y20" s="16">
-        <f t="shared" si="9"/>
         <v>0.1096570983244578</v>
       </c>
     </row>
@@ -4660,31 +4996,34 @@
       <c r="T21" s="2">
         <v>0.66649999999999998</v>
       </c>
-      <c r="U21" s="37">
+      <c r="U21" s="31">
         <f>U19/U3</f>
-        <v>0.69931572002823039</v>
-      </c>
-      <c r="V21" s="37">
-        <f t="shared" ref="V21:Y21" si="10">V19/V3</f>
+        <v>0.69886537871818466</v>
+      </c>
+      <c r="V21" s="31">
+        <f>V19/V3</f>
         <v>0.70903970401457839</v>
       </c>
-      <c r="W21" s="37">
-        <f t="shared" si="10"/>
+      <c r="W21" s="31">
+        <f>W19/W3</f>
         <v>0.70892901310907741</v>
       </c>
-      <c r="X21" s="37">
-        <f t="shared" si="10"/>
+      <c r="X21" s="31">
+        <f>X19/X3</f>
         <v>0.71178292423612077</v>
       </c>
-      <c r="Y21" s="37">
-        <f t="shared" si="10"/>
+      <c r="Y21" s="31">
+        <f>Y19/Y3</f>
         <v>0.68524162823340684</v>
       </c>
+      <c r="AA21" s="42" t="s">
+        <v>166</v>
+      </c>
       <c r="AB21" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC21" s="19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4748,13 +5087,17 @@
       <c r="T22" s="10">
         <v>18813000000</v>
       </c>
-      <c r="AB22" s="34">
-        <f>(-1*T98)/AB101</f>
-        <v>6.6106621332480808E-3</v>
-      </c>
-      <c r="AC22" s="35">
-        <f>T107/AB101</f>
-        <v>3.6900414698826857E-2</v>
+      <c r="AA22" s="17">
+        <f>SUM(U29:Y29)/5</f>
+        <v>0.12474545942306228</v>
+      </c>
+      <c r="AB22" s="41">
+        <f>(-1*T98)/AB102</f>
+        <v>6.7305787206911067E-3</v>
+      </c>
+      <c r="AC22" s="29">
+        <f>U107/AB102</f>
+        <v>3.8475459374291025E-2</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -5128,19 +5471,19 @@
       <c r="T28" s="11">
         <v>14957000000</v>
       </c>
-      <c r="U28" s="38">
+      <c r="U28" s="32">
         <v>18015000000</v>
       </c>
-      <c r="V28" s="38">
+      <c r="V28" s="32">
         <v>20092000000</v>
       </c>
-      <c r="W28" s="38">
+      <c r="W28" s="32">
         <v>22564000000</v>
       </c>
-      <c r="X28" s="38">
+      <c r="X28" s="32">
         <v>24140000000</v>
       </c>
-      <c r="Y28" s="38">
+      <c r="Y28" s="32">
         <v>26822000000</v>
       </c>
     </row>
@@ -5162,83 +5505,83 @@
         <v>-3.3673280373811214</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:O29" si="11">(F28/E28)-1</f>
+        <f t="shared" ref="F29:O29" si="5">(F28/E28)-1</f>
         <v>-1.7471459304243584</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1.9266169154228856</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.2605184870378241</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.23061362103843552</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-0.41260273972602735</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1.3227611940298507</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>9.1967871485943764E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.1636631114380287</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>-5.3255372945638424E-2</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.11817726589884825</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" ref="P29" si="12">(P28/O28)-1</f>
+        <f>(P28/O28)-1</f>
         <v>0.53769219286460657</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" ref="Q29" si="13">(Q28/P28)-1</f>
+        <f>(Q28/P28)-1</f>
         <v>0.17270167944859716</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" ref="R29" si="14">(R28/Q28)-1</f>
+        <f>(R28/Q28)-1</f>
         <v>-0.10049668874172191</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" ref="S29" si="15">(S28/R28)-1</f>
+        <f>(S28/R28)-1</f>
         <v>0.13298361862690955</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" ref="T29:Y29" si="16">(T28/S28)-1</f>
+        <f t="shared" ref="T29:Y29" si="6">(T28/S28)-1</f>
         <v>0.21492973763301104</v>
       </c>
       <c r="U29" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0.20445276459182993</v>
       </c>
       <c r="V29" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0.11529281154593396</v>
       </c>
       <c r="W29" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0.12303404340035828</v>
       </c>
       <c r="X29" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>6.984577202623643E-2</v>
       </c>
       <c r="Y29" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0.11110190555095278</v>
       </c>
     </row>
@@ -5303,24 +5646,24 @@
       <c r="T30" s="2">
         <v>0.51029999999999998</v>
       </c>
-      <c r="U30" s="39">
+      <c r="U30" s="33">
         <f>U28/U3</f>
-        <v>0.55279388750805492</v>
-      </c>
-      <c r="V30" s="39">
-        <f t="shared" ref="V30:Y30" si="17">V28/V3</f>
+        <v>0.55243790248390068</v>
+      </c>
+      <c r="V30" s="33">
+        <f>V28/V3</f>
         <v>0.55475178088243415</v>
       </c>
-      <c r="W30" s="39">
-        <f t="shared" si="17"/>
+      <c r="W30" s="33">
+        <f>W28/W3</f>
         <v>0.55810042047984165</v>
       </c>
-      <c r="X30" s="39">
-        <f t="shared" si="17"/>
+      <c r="X30" s="33">
+        <f>X28/X3</f>
         <v>0.55794388203208056</v>
       </c>
-      <c r="Y30" s="39">
-        <f t="shared" si="17"/>
+      <c r="Y30" s="33">
+        <f>Y28/Y3</f>
         <v>0.53783837978744742</v>
       </c>
     </row>
@@ -5385,19 +5728,19 @@
       <c r="T31" s="12">
         <v>7.02</v>
       </c>
-      <c r="U31" s="40">
+      <c r="U31" s="34">
         <v>8.7899999999999991</v>
       </c>
-      <c r="V31" s="40">
+      <c r="V31" s="34">
         <v>9.81</v>
       </c>
-      <c r="W31" s="40">
+      <c r="W31" s="34">
         <v>11.01</v>
       </c>
-      <c r="X31" s="40">
+      <c r="X31" s="34">
         <v>11.78</v>
       </c>
-      <c r="Y31" s="40">
+      <c r="Y31" s="34">
         <v>13.09</v>
       </c>
     </row>
@@ -5463,7 +5806,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -5524,8 +5867,12 @@
       <c r="T33" s="1">
         <v>2130301000</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U33" s="1" cm="1">
+        <f t="array" ref="U33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>2035361000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -5586,8 +5933,12 @@
       <c r="T34" s="1">
         <v>2188000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U34" s="1" cm="1">
+        <f t="array" ref="U34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>2035361000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -5597,75 +5948,79 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:O35" si="18">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:O35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>-7.7419354838709677E-3</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>-1.4304291287386216E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>0.44591029023746703</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>-6.7518248175182483E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>-5.6751467710371817E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>-0.31950207468879666</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>-3.8109756097560975E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>-2.6545166402535656E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>-1.7501017501017502E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>-7.870753935376968E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" ref="P35" si="19">(P34-O34)/O34</f>
+        <f t="shared" ref="P35:U35" si="8">(P34-O34)/O34</f>
         <v>-2.7557411273486428E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" ref="Q35" si="20">(Q34-P34)/P34</f>
+        <f t="shared" si="8"/>
         <v>-2.4474023185916703E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" ref="R35" si="21">(R34-Q34)/Q34</f>
+        <f t="shared" si="8"/>
         <v>-2.1566901408450703E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" ref="S35" si="22">(S34-R34)/R34</f>
+        <f t="shared" si="8"/>
         <v>-1.5744489428699954E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" ref="T35" si="23">(T34-S34)/S34</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U35" s="22">
+        <f t="shared" si="8"/>
+        <v>-6.9761882998171848E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -5727,7 +6082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -5789,7 +6144,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -5851,7 +6206,7 @@
         <v>15689000000</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -5913,7 +6268,7 @@
         <v>2833000000</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -5975,7 +6330,7 @@
         <v>18522000000</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -6037,7 +6392,7 @@
         <v>3952000000</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -6099,7 +6454,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -6161,7 +6516,7 @@
         <v>7731000000</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -6223,7 +6578,7 @@
         <v>30205000000</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -6285,7 +6640,7 @@
         <v>3223000000</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -6347,7 +6702,7 @@
         <v>17787000000</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -6409,7 +6764,7 @@
         <v>25065000000</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -8398,79 +8753,79 @@
         <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:T80" si="24">B79/B3</f>
+        <f t="shared" ref="B80:T80" si="9">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.181542391825004E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.6640138908985674E-2</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.6243025418474891E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.6760992599042228E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.4106131849150754E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.5197826456104601E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.3541174618170367E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.3472622478386168E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.4653229014719533E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.2800958710099139E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.5866854286962006E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.7713365539452495E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.9042387622448045E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>2.2484961626218627E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>2.0539065165472534E-2</v>
       </c>
     </row>
@@ -8598,7 +8953,7 @@
         <v>-97000000</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -8659,12 +9014,8 @@
       <c r="T83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AA83" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB83" s="43"/>
-    </row>
-    <row r="84" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -8725,12 +9076,18 @@
       <c r="T84" s="1">
         <v>67000000</v>
       </c>
-      <c r="AA84" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB84" s="44"/>
-    </row>
-    <row r="85" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U84" s="43"/>
+      <c r="V84" s="43"/>
+      <c r="W84" s="43"/>
+      <c r="X84" s="43"/>
+      <c r="Y84" s="43"/>
+      <c r="Z84" s="43"/>
+      <c r="AA84" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB84" s="71"/>
+    </row>
+    <row r="85" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -8791,13 +9148,16 @@
       <c r="T85" s="1">
         <v>-9351000000</v>
       </c>
-      <c r="AA85" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB85" s="46">
-        <f>T17</f>
-        <v>538000000</v>
-      </c>
+      <c r="U85" s="43"/>
+      <c r="V85" s="43"/>
+      <c r="W85" s="43"/>
+      <c r="X85" s="43"/>
+      <c r="Y85" s="43"/>
+      <c r="Z85" s="43"/>
+      <c r="AA85" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB85" s="72"/>
     </row>
     <row r="86" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -8860,12 +9220,18 @@
       <c r="T86" s="1">
         <v>10422000000</v>
       </c>
-      <c r="AA86" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB86" s="46">
-        <f>T56</f>
-        <v>2250000000</v>
+      <c r="U86" s="43"/>
+      <c r="V86" s="43"/>
+      <c r="W86" s="43"/>
+      <c r="X86" s="43"/>
+      <c r="Y86" s="43"/>
+      <c r="Z86" s="43"/>
+      <c r="AA86" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB86" s="53">
+        <f>T17</f>
+        <v>538000000</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -8929,12 +9295,18 @@
       <c r="T87" s="10">
         <v>18849000000</v>
       </c>
-      <c r="AA87" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB87" s="46">
-        <f>T61</f>
-        <v>20200000000</v>
+      <c r="U87" s="43"/>
+      <c r="V87" s="43"/>
+      <c r="W87" s="43"/>
+      <c r="X87" s="43"/>
+      <c r="Y87" s="43"/>
+      <c r="Z87" s="43"/>
+      <c r="AA87" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB87" s="53">
+        <f>T56</f>
+        <v>2250000000</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -8998,12 +9370,18 @@
       <c r="T88" s="1">
         <v>-970000000</v>
       </c>
-      <c r="AA88" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB88" s="48">
-        <f>AB85/(AB86+AB87)</f>
-        <v>2.396436525612472E-2</v>
+      <c r="U88" s="43"/>
+      <c r="V88" s="43"/>
+      <c r="W88" s="43"/>
+      <c r="X88" s="43"/>
+      <c r="Y88" s="43"/>
+      <c r="Z88" s="43"/>
+      <c r="AA88" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB88" s="53">
+        <f>T61</f>
+        <v>20200000000</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9011,87 +9389,93 @@
         <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:T89" si="25">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:T89" si="10">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>4.4759729866152773E-2</v>
       </c>
       <c r="D89" s="15" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>4.4559635143612615E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>6.6262174676672517E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>4.427723918390971E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>2.9882207067575946E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>3.8419677840661734E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>3.6080990308031857E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>3.2902467685076382E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>3.3690378101254234E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>2.924704418170504E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>3.3094506994199933E-2</v>
       </c>
-      <c r="AA89" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB89" s="46">
-        <f>T27</f>
-        <v>3179000000</v>
+      <c r="U89" s="43"/>
+      <c r="V89" s="43"/>
+      <c r="W89" s="43"/>
+      <c r="X89" s="43"/>
+      <c r="Y89" s="43"/>
+      <c r="Z89" s="43"/>
+      <c r="AA89" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB89" s="54">
+        <f>AB86/(AB87+AB88)</f>
+        <v>2.396436525612472E-2</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9155,12 +9539,18 @@
       <c r="T90" s="1">
         <v>-1948000000</v>
       </c>
-      <c r="AA90" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB90" s="46">
-        <f>T25</f>
-        <v>18136000000</v>
+      <c r="U90" s="43"/>
+      <c r="V90" s="43"/>
+      <c r="W90" s="43"/>
+      <c r="X90" s="43"/>
+      <c r="Y90" s="43"/>
+      <c r="Z90" s="43"/>
+      <c r="AA90" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB90" s="53">
+        <f>T27</f>
+        <v>3179000000</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9224,12 +9614,18 @@
       <c r="T91" s="1">
         <v>-6083000000</v>
       </c>
-      <c r="AA91" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB91" s="48">
-        <f>AB89/AB90</f>
-        <v>0.17528672254080283</v>
+      <c r="U91" s="43"/>
+      <c r="V91" s="43"/>
+      <c r="W91" s="43"/>
+      <c r="X91" s="43"/>
+      <c r="Y91" s="43"/>
+      <c r="Z91" s="43"/>
+      <c r="AA91" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB91" s="53">
+        <f>T25</f>
+        <v>18136000000</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9293,15 +9689,21 @@
       <c r="T92" s="1">
         <v>4585000000</v>
       </c>
-      <c r="AA92" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB92" s="48">
-        <f>AB88*(1-AB91)</f>
-        <v>1.9763730212607931E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U92" s="43"/>
+      <c r="V92" s="43"/>
+      <c r="W92" s="43"/>
+      <c r="X92" s="43"/>
+      <c r="Y92" s="43"/>
+      <c r="Z92" s="43"/>
+      <c r="AA92" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB92" s="54">
+        <f>AB90/AB91</f>
+        <v>0.17528672254080283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -9362,12 +9764,21 @@
       <c r="T93" s="1">
         <v>128000000</v>
       </c>
-      <c r="AA93" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB93" s="44"/>
-    </row>
-    <row r="94" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U93" s="43"/>
+      <c r="V93" s="43"/>
+      <c r="W93" s="43"/>
+      <c r="X93" s="43"/>
+      <c r="Y93" s="43"/>
+      <c r="Z93" s="43"/>
+      <c r="AA93" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB93" s="54">
+        <f>AB89*(1-AB92)</f>
+        <v>1.9763730212607931E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -9428,13 +9839,16 @@
       <c r="T94" s="10">
         <v>-4288000000</v>
       </c>
-      <c r="AA94" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB94" s="67">
-        <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
-      </c>
+      <c r="U94" s="43"/>
+      <c r="V94" s="43"/>
+      <c r="W94" s="43"/>
+      <c r="X94" s="43"/>
+      <c r="Y94" s="43"/>
+      <c r="Z94" s="43"/>
+      <c r="AA94" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB94" s="72"/>
     </row>
     <row r="95" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -9497,12 +9911,18 @@
       <c r="T95" s="1">
         <v>-1000000000</v>
       </c>
-      <c r="AA95" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB95" s="50" cm="1">
-        <f t="array" ref="AB95">_FV(A1,"Beta")</f>
-        <v>0.97019999999999995</v>
+      <c r="U95" s="43"/>
+      <c r="V95" s="43"/>
+      <c r="W95" s="43"/>
+      <c r="X95" s="43"/>
+      <c r="Y95" s="43"/>
+      <c r="Z95" s="43"/>
+      <c r="AA95" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB95" s="55">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9566,11 +9986,18 @@
       <c r="T96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AA96" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB96" s="49">
-        <v>8.4000000000000005E-2</v>
+      <c r="U96" s="43"/>
+      <c r="V96" s="43"/>
+      <c r="W96" s="43"/>
+      <c r="X96" s="43"/>
+      <c r="Y96" s="43"/>
+      <c r="Z96" s="43"/>
+      <c r="AA96" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB96" s="56" cm="1">
+        <f t="array" ref="AB96">_FV(A1,"Beta")</f>
+        <v>0.9526</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9634,15 +10061,20 @@
       <c r="T97" s="1">
         <v>-11589000000</v>
       </c>
-      <c r="AA97" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB97" s="48">
-        <f>(AB94)+((AB95)*(AB96-AB94))</f>
-        <v>8.2703104E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U97" s="43"/>
+      <c r="V97" s="43"/>
+      <c r="W97" s="43"/>
+      <c r="X97" s="43"/>
+      <c r="Y97" s="43"/>
+      <c r="Z97" s="43"/>
+      <c r="AA97" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB97" s="55">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -9703,12 +10135,21 @@
       <c r="T98" s="1">
         <v>-3203000000</v>
       </c>
-      <c r="AA98" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB98" s="44"/>
-    </row>
-    <row r="99" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U98" s="43"/>
+      <c r="V98" s="43"/>
+      <c r="W98" s="43"/>
+      <c r="X98" s="43"/>
+      <c r="Y98" s="43"/>
+      <c r="Z98" s="43"/>
+      <c r="AA98" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB98" s="54">
+        <f>(AB95)+((AB96)*(AB97-AB95))</f>
+        <v>8.2341947999999998E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -9769,13 +10210,16 @@
       <c r="T99" s="1">
         <v>3096000000</v>
       </c>
-      <c r="AA99" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB99" s="46">
-        <f>AB86+AB87</f>
-        <v>22450000000</v>
-      </c>
+      <c r="U99" s="43"/>
+      <c r="V99" s="43"/>
+      <c r="W99" s="43"/>
+      <c r="X99" s="43"/>
+      <c r="Y99" s="43"/>
+      <c r="Z99" s="43"/>
+      <c r="AA99" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB99" s="72"/>
     </row>
     <row r="100" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -9838,12 +10282,18 @@
       <c r="T100" s="10">
         <v>-12696000000</v>
       </c>
-      <c r="AA100" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB100" s="48">
-        <f>AB99/AB103</f>
-        <v>4.4282672969205496E-2</v>
+      <c r="U100" s="43"/>
+      <c r="V100" s="43"/>
+      <c r="W100" s="43"/>
+      <c r="X100" s="43"/>
+      <c r="Y100" s="43"/>
+      <c r="Z100" s="43"/>
+      <c r="AA100" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB100" s="53">
+        <f>AB87+AB88</f>
+        <v>22450000000</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9907,12 +10357,18 @@
       <c r="T101" s="1">
         <v>-1287000000</v>
       </c>
-      <c r="AA101" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB101" s="51" cm="1">
-        <f t="array" ref="AB101">_FV(A1,"Market cap",TRUE)</f>
-        <v>484520300000</v>
+      <c r="U101" s="43"/>
+      <c r="V101" s="43"/>
+      <c r="W101" s="43"/>
+      <c r="X101" s="43"/>
+      <c r="Y101" s="43"/>
+      <c r="Z101" s="43"/>
+      <c r="AA101" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB101" s="54">
+        <f>AB100/AB104</f>
+        <v>4.5049767464497237E-2</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9976,12 +10432,18 @@
       <c r="T102" s="10">
         <v>578000000</v>
       </c>
-      <c r="AA102" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB102" s="48">
-        <f>AB101/AB103</f>
-        <v>0.95571732703079448</v>
+      <c r="U102" s="43"/>
+      <c r="V102" s="43"/>
+      <c r="W102" s="43"/>
+      <c r="X102" s="43"/>
+      <c r="Y102" s="43"/>
+      <c r="Z102" s="43"/>
+      <c r="AA102" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB102" s="57" cm="1">
+        <f t="array" ref="AB102">_FV(A1,"Market cap",TRUE)</f>
+        <v>475887755410</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -10045,15 +10507,21 @@
       <c r="T103" s="1">
         <v>19799000000</v>
       </c>
-      <c r="AA103" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB103" s="52">
-        <f>AB99+AB101</f>
-        <v>506970300000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U103" s="43"/>
+      <c r="V103" s="43"/>
+      <c r="W103" s="43"/>
+      <c r="X103" s="43"/>
+      <c r="Y103" s="43"/>
+      <c r="Z103" s="43"/>
+      <c r="AA103" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB103" s="54">
+        <f>AB102/AB104</f>
+        <v>0.95495023253550271</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -10114,224 +10582,238 @@
       <c r="T104" s="11">
         <v>20377000000</v>
       </c>
-      <c r="AA104" s="44" t="s">
+      <c r="U104" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="V104" s="74"/>
+      <c r="W104" s="74"/>
+      <c r="X104" s="74"/>
+      <c r="Y104" s="74"/>
+      <c r="Z104" s="43"/>
+      <c r="AA104" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB104" s="58">
+        <f>AB100+AB102</f>
+        <v>498337755410</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ref="C105:T105" si="11">((C22*(1-$AB$92))+C77+C88+C81)</f>
+        <v>-343015212.94662547</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="11"/>
+        <v>-1775635772.110719</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="11"/>
+        <v>-2499953242.170269</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="11"/>
+        <v>-424164424.34936047</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="11"/>
+        <v>1473609230.2602558</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="11"/>
+        <v>2400635641.81738</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="11"/>
+        <v>-378938299.51477718</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="11"/>
+        <v>6099415.5271282196</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="11"/>
+        <v>5530818096.6034412</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="11"/>
+        <v>4424201146.8901634</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="11"/>
+        <v>3477214766.2108517</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="11"/>
+        <v>5991318041.4644909</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="11"/>
+        <v>8639335796.20644</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="11"/>
+        <v>5968523875.1654167</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="11"/>
+        <v>3245787659.902956</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="11"/>
+        <v>6430768636.9651527</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="11"/>
+        <v>7749330888.8398762</v>
+      </c>
+      <c r="U105" s="61">
+        <f>U107/U3</f>
+        <v>0.56148420729837478</v>
+      </c>
+      <c r="V105" s="61">
+        <f>V107/V3</f>
+        <v>0.56273123861063556</v>
+      </c>
+      <c r="W105" s="61">
+        <f>W107/W3</f>
+        <v>0.56302250803858522</v>
+      </c>
+      <c r="X105" s="61">
+        <f>X107/X3</f>
+        <v>0.55965423196043085</v>
+      </c>
+      <c r="Y105" s="61">
+        <f>Y107/Y3</f>
+        <v>0.54826549027471427</v>
+      </c>
+      <c r="Z105" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA105" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="AB104" s="44"/>
-    </row>
-    <row r="105" spans="1:28" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C105" s="1">
-        <f t="shared" ref="C105:S105" si="26">((C22*(1-$AB$91))+C77+C88+C81)</f>
-        <v>-343015212.94662547</v>
-      </c>
-      <c r="D105" s="1" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="1">
-        <f t="shared" si="26"/>
-        <v>-1775635772.110719</v>
-      </c>
-      <c r="F105" s="1">
-        <f t="shared" si="26"/>
-        <v>-2499953242.170269</v>
-      </c>
-      <c r="G105" s="1">
-        <f t="shared" si="26"/>
-        <v>-424164424.34936047</v>
-      </c>
-      <c r="H105" s="1">
-        <f t="shared" si="26"/>
-        <v>1473609230.2602558</v>
-      </c>
-      <c r="I105" s="1">
-        <f t="shared" si="26"/>
-        <v>2400635641.81738</v>
-      </c>
-      <c r="J105" s="1">
-        <f t="shared" si="26"/>
-        <v>-378938299.51477718</v>
-      </c>
-      <c r="K105" s="1">
-        <f t="shared" si="26"/>
-        <v>6099415.5271282196</v>
-      </c>
-      <c r="L105" s="1">
-        <f t="shared" si="26"/>
-        <v>5530818096.6034412</v>
-      </c>
-      <c r="M105" s="1">
-        <f t="shared" si="26"/>
-        <v>4424201146.8901634</v>
-      </c>
-      <c r="N105" s="1">
-        <f t="shared" si="26"/>
-        <v>3477214766.2108517</v>
-      </c>
-      <c r="O105" s="1">
-        <f t="shared" si="26"/>
-        <v>5991318041.4644909</v>
-      </c>
-      <c r="P105" s="1">
-        <f t="shared" si="26"/>
-        <v>8639335796.20644</v>
-      </c>
-      <c r="Q105" s="1">
-        <f t="shared" si="26"/>
-        <v>5968523875.1654167</v>
-      </c>
-      <c r="R105" s="1">
-        <f t="shared" si="26"/>
-        <v>3245787659.902956</v>
-      </c>
-      <c r="S105" s="1">
-        <f t="shared" si="26"/>
-        <v>6430768636.9651527</v>
-      </c>
-      <c r="T105" s="1">
-        <f>((T22*(1-$AB$91))+T77+T88+T81)</f>
-        <v>7749330888.8398762</v>
-      </c>
-      <c r="U105" s="31">
-        <f>T105*(1+$AB$106)</f>
-        <v>8620833882.7144489</v>
-      </c>
-      <c r="V105" s="31">
-        <f t="shared" ref="V105:Y105" si="27">U105*(1+$AB$106)</f>
-        <v>9590347592.5111103</v>
-      </c>
-      <c r="W105" s="31">
-        <f t="shared" si="27"/>
-        <v>10668894470.823915</v>
-      </c>
-      <c r="X105" s="31">
-        <f t="shared" si="27"/>
-        <v>11868736574.100897</v>
-      </c>
-      <c r="Y105" s="31">
-        <f t="shared" si="27"/>
-        <v>13203514970.611732</v>
-      </c>
-      <c r="Z105" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA105" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB105" s="54">
-        <f>(AB100*AB92)+(AB102*AB97)</f>
-        <v>7.9915980293686323E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="AB105" s="72"/>
+    </row>
+    <row r="106" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:T106" si="12">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.2024175203812244</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.16257238071566005</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.77036387427818043</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="12"/>
         <v>1.1724137931034484</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="12"/>
         <v>8.7222222222222214</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.4363265306122448</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.31656720659278204</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.44938484783077914</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="12"/>
         <v>1.6076048608388867</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="12"/>
         <v>-7.2459410703547777E-2</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.18136142625607776</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.68303306275984954</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.41101046935654639</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="12"/>
         <v>2.7511463109628487E-3</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.19321582973062856</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.49649629018961261</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.23116650599091026</v>
       </c>
-      <c r="U106" s="68">
-        <v>18156000000</v>
-      </c>
-      <c r="V106" s="68">
-        <v>20373000000</v>
-      </c>
-      <c r="W106" s="68">
-        <v>22743000000</v>
-      </c>
-      <c r="X106" s="68">
-        <v>23990000000</v>
-      </c>
-      <c r="Y106" s="68">
-        <v>27360000000</v>
-      </c>
-      <c r="Z106" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA106" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB106" s="56">
-        <f>(SUM(U4:Y4)/5)</f>
-        <v>0.11246170880761577</v>
+      <c r="U106" s="45">
+        <f>(U107/T107)-1</f>
+        <v>2.4106493651770311E-2</v>
+      </c>
+      <c r="V106" s="45">
+        <f>(V107/U107)-1</f>
+        <v>0.11310759148006544</v>
+      </c>
+      <c r="W106" s="45">
+        <f>(W107/V107)-1</f>
+        <v>0.11687355870663851</v>
+      </c>
+      <c r="X106" s="45">
+        <f>(X107/W107)-1</f>
+        <v>6.3743794754645755E-2</v>
+      </c>
+      <c r="Y106" s="45">
+        <f>(Y107/X107)-1</f>
+        <v>0.12918146526802676</v>
+      </c>
+      <c r="Z106" s="49">
+        <f>SUM(U106:Y106)/5</f>
+        <v>8.9402580772229359E-2</v>
+      </c>
+      <c r="AA106" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB106" s="59">
+        <f>(AB101*AB93)+(AB103*AB98)</f>
+        <v>7.9522813840335327E-2</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
-        <v>164</v>
+      <c r="A107" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>91</v>
@@ -10390,151 +10872,239 @@
       <c r="T107" s="1">
         <v>17879000000</v>
       </c>
-      <c r="U107" s="28"/>
-      <c r="V107" s="28"/>
-      <c r="W107" s="28"/>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="69">
-        <f>Y106*(1+AB107)/(AB108-AB107)</f>
-        <v>510671025993.21545</v>
-      </c>
-      <c r="Z107" s="29" t="s">
+      <c r="U107" s="46">
+        <v>18310000000</v>
+      </c>
+      <c r="V107" s="46">
+        <v>20381000000</v>
+      </c>
+      <c r="W107" s="46">
+        <v>22763000000</v>
+      </c>
+      <c r="X107" s="46">
+        <v>24214000000</v>
+      </c>
+      <c r="Y107" s="46">
+        <v>27342000000</v>
+      </c>
+      <c r="Z107" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA107" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB107" s="39">
+        <f>(SUM(U4:Y4)/5)</f>
+        <v>0.11246186760743422</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="19" x14ac:dyDescent="0.2">
+      <c r="U108" s="63"/>
+      <c r="V108" s="63"/>
+      <c r="W108" s="63"/>
+      <c r="X108" s="63"/>
+      <c r="Y108" s="47">
+        <f>Y107*(1+AB108)/(AB109-AB108)</f>
+        <v>514015107181.92297</v>
+      </c>
+      <c r="Z108" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA108" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="AA107" s="57" t="s">
+      <c r="AB108" s="40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.2">
+      <c r="U109" s="47">
+        <f>U108+U107</f>
+        <v>18310000000</v>
+      </c>
+      <c r="V109" s="47">
+        <f>V108+V107</f>
+        <v>20381000000</v>
+      </c>
+      <c r="W109" s="47">
+        <f>W108+W107</f>
+        <v>22763000000</v>
+      </c>
+      <c r="X109" s="47">
+        <f>X108+X107</f>
+        <v>24214000000</v>
+      </c>
+      <c r="Y109" s="47">
+        <f>Y108+Y107</f>
+        <v>541357107181.92297</v>
+      </c>
+      <c r="Z109" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA109" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="AB107" s="58">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U108" s="69">
-        <f t="shared" ref="U108:X108" si="28">U107+U106</f>
-        <v>18156000000</v>
-      </c>
-      <c r="V108" s="69">
-        <f t="shared" si="28"/>
-        <v>20373000000</v>
-      </c>
-      <c r="W108" s="69">
-        <f t="shared" si="28"/>
-        <v>22743000000</v>
-      </c>
-      <c r="X108" s="69">
-        <f t="shared" si="28"/>
-        <v>23990000000</v>
-      </c>
-      <c r="Y108" s="69">
-        <f>Y107+Y106</f>
-        <v>538031025993.21545</v>
-      </c>
-      <c r="Z108" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA108" s="59" t="s">
+      <c r="AB109" s="39">
+        <f>AB106</f>
+        <v>7.9522813840335327E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="19" x14ac:dyDescent="0.2">
+      <c r="U110" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="AB108" s="56">
-        <f>AB105</f>
-        <v>7.9915980293686323E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U109" s="60" t="s">
+      <c r="V110" s="73"/>
+      <c r="W110" s="43"/>
+      <c r="X110" s="43"/>
+      <c r="Y110" s="43"/>
+      <c r="Z110" s="43"/>
+      <c r="AA110" s="43"/>
+      <c r="AB110" s="43"/>
+    </row>
+    <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.2">
+      <c r="U111" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="V109" s="60"/>
-    </row>
-    <row r="110" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U110" s="61" t="s">
+      <c r="V111" s="57">
+        <f>NPV(AB109,U109,V109,W109,X109,Y109)</f>
+        <v>439627134517.3819</v>
+      </c>
+      <c r="W111" s="43"/>
+      <c r="X111" s="43"/>
+      <c r="Y111" s="43"/>
+      <c r="Z111" s="43"/>
+      <c r="AA111" s="43"/>
+      <c r="AB111" s="43"/>
+    </row>
+    <row r="112" spans="1:28" ht="20" x14ac:dyDescent="0.2">
+      <c r="U112" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="V110" s="51">
-        <f>NPV(AB108,U108,V108,W108,X108,Y108)</f>
-        <v>436296239972.44263</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U111" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="V111" s="51">
+      <c r="V112" s="57">
         <f>T40</f>
         <v>18522000000</v>
       </c>
-    </row>
-    <row r="112" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U112" s="61" t="s">
+      <c r="W112" s="43"/>
+      <c r="X112" s="43"/>
+      <c r="Y112" s="43"/>
+      <c r="Z112" s="43"/>
+      <c r="AA112" s="43"/>
+      <c r="AB112" s="43"/>
+    </row>
+    <row r="113" spans="21:28" ht="20" x14ac:dyDescent="0.2">
+      <c r="U113" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="V112" s="51">
-        <f>AB99</f>
+      <c r="V113" s="57">
+        <f>AB100</f>
         <v>22450000000</v>
       </c>
-    </row>
-    <row r="113" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U113" s="61" t="s">
+      <c r="W113" s="43"/>
+      <c r="X113" s="43"/>
+      <c r="Y113" s="43"/>
+      <c r="Z113" s="43"/>
+      <c r="AA113" s="43"/>
+      <c r="AB113" s="43"/>
+    </row>
+    <row r="114" spans="21:28" ht="20" x14ac:dyDescent="0.2">
+      <c r="U114" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="V114" s="57">
+        <f>V111+V112-V113</f>
+        <v>435699134517.3819</v>
+      </c>
+      <c r="W114" s="43"/>
+      <c r="X114" s="43"/>
+      <c r="Y114" s="43"/>
+      <c r="Z114" s="43"/>
+      <c r="AA114" s="43"/>
+      <c r="AB114" s="43"/>
+    </row>
+    <row r="115" spans="21:28" ht="20" x14ac:dyDescent="0.2">
+      <c r="U115" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="V113" s="51">
-        <f>V110+V111-V112</f>
-        <v>432368239972.44263</v>
-      </c>
-    </row>
-    <row r="114" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U114" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="V114" s="61">
+      <c r="V115" s="64">
         <f>T34*(1+(5*Z16))</f>
         <v>1992517898.2511404</v>
       </c>
-    </row>
-    <row r="115" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U115" s="62" t="s">
+      <c r="W115" s="43"/>
+      <c r="X115" s="43"/>
+      <c r="Y115" s="43"/>
+      <c r="Z115" s="43"/>
+      <c r="AA115" s="43"/>
+      <c r="AB115" s="43"/>
+    </row>
+    <row r="116" spans="21:28" ht="20" x14ac:dyDescent="0.2">
+      <c r="U116" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="V116" s="66">
+        <f>V114/V115</f>
+        <v>218.66761392698197</v>
+      </c>
+      <c r="W116" s="43"/>
+      <c r="X116" s="43"/>
+      <c r="Y116" s="43"/>
+      <c r="Z116" s="43"/>
+      <c r="AA116" s="43"/>
+      <c r="AB116" s="43"/>
+    </row>
+    <row r="117" spans="21:28" ht="20" x14ac:dyDescent="0.2">
+      <c r="U117" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="V115" s="63">
-        <f>V113/V114</f>
-        <v>216.99591273530743</v>
-      </c>
-    </row>
-    <row r="116" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U116" s="61" t="s">
+      <c r="V117" s="67" cm="1">
+        <f t="array" ref="V117">_FV(A1,"Price")</f>
+        <v>233.81</v>
+      </c>
+      <c r="W117" s="43"/>
+      <c r="X117" s="43"/>
+      <c r="Y117" s="43"/>
+      <c r="Z117" s="43"/>
+      <c r="AA117" s="43"/>
+      <c r="AB117" s="43"/>
+    </row>
+    <row r="118" spans="21:28" ht="20" x14ac:dyDescent="0.2">
+      <c r="U118" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="V116" s="64" cm="1">
-        <f t="array" ref="V116">_FV(A1,"Price")</f>
-        <v>236.45</v>
-      </c>
-    </row>
-    <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U117" s="62" t="s">
+      <c r="V118" s="68">
+        <f>V116/V117-1</f>
+        <v>-6.4763637453564948E-2</v>
+      </c>
+      <c r="W118" s="43"/>
+      <c r="X118" s="43"/>
+      <c r="Y118" s="43"/>
+      <c r="Z118" s="43"/>
+      <c r="AA118" s="43"/>
+      <c r="AB118" s="43"/>
+    </row>
+    <row r="119" spans="21:28" ht="20" x14ac:dyDescent="0.2">
+      <c r="U119" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="V117" s="65">
-        <f>V115/V116-1</f>
-        <v>-8.2275691540251938E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U118" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="V118" s="66" t="str">
-        <f>IF(V115&gt;V116,"BUY","SELL")</f>
+      <c r="V119" s="69" t="str">
+        <f>IF(V116&gt;V117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="W119" s="43"/>
+      <c r="X119" s="43"/>
+      <c r="Y119" s="43"/>
+      <c r="Z119" s="43"/>
+      <c r="AA119" s="43"/>
+      <c r="AB119" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="U109:V109"/>
-    <mergeCell ref="AA83:AB83"/>
+  <mergeCells count="7">
     <mergeCell ref="AA84:AB84"/>
-    <mergeCell ref="AA93:AB93"/>
-    <mergeCell ref="AA98:AB98"/>
-    <mergeCell ref="AA104:AB104"/>
+    <mergeCell ref="AA85:AB85"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="U104:Y104"/>
+    <mergeCell ref="AA105:AB105"/>
+    <mergeCell ref="AA99:AB99"/>
+    <mergeCell ref="AA94:AB94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/V" display="ROIC.AI | V" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10577,7 +11147,7 @@
     <hyperlink ref="T36" r:id="rId38" tooltip="https://www.sec.gov/Archives/edgar/data/1403161/000140316122000081/0001403161-22-000081-index.htm" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="T74" r:id="rId39" tooltip="https://www.sec.gov/Archives/edgar/data/1403161/000140316122000081/0001403161-22-000081-index.htm" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="U1" r:id="rId40" display="https://finbox.com/NYSE:V/explorer/revenue_proj" xr:uid="{8B489DD0-81E2-324F-A099-71AE7B91685A}"/>
-    <hyperlink ref="Z106" r:id="rId41" xr:uid="{CB0E0F15-789B-A54F-A854-11458E4C93FE}"/>
+    <hyperlink ref="Z107" r:id="rId41" xr:uid="{CB0E0F15-789B-A54F-A854-11458E4C93FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId42"/>

--- a/Financial Services/Visa.xlsx
+++ b/Financial Services/Visa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC6D1EB-301B-4F48-9706-566F4D9F863A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBDF0E8-C1CB-E04B-8561-2DD5EFCD04FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,7 +2585,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2725,12 +2725,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>250.06</v>
-    <v>184.755</v>
-    <v>0.9526</v>
-    <v>-3.66</v>
-    <v>-1.5411999999999999E-2</v>
-    <v>-0.79</v>
-    <v>-3.3789999999999996E-3</v>
+    <v>185.05</v>
+    <v>0.95199999999999996</v>
+    <v>-0.43</v>
+    <v>-1.8390000000000001E-3</v>
+    <v>-0.5</v>
+    <v>-2.1419999999999998E-3</v>
     <v>USD</v>
     <v>Visa Inc. (Visa) is a global payments technology company. The Company provides digital payments across more than 200 countries and territories. The Company connects consumers, merchants, financial institutions, businesses, strategic partners and government entities through technologies. The Company operates through the payment services segment. The Company provides transaction processing services, including primarily authorization, clearing and settlement to its financial institution and merchant clients through VisaNet, its transaction processing network. Its core business solutions, including credit, debit, prepaid and cash access programs for individual, business and government account holders. It also provides value-added services to its clients, including issuing solutions, acceptance solutions, risk and identity solutions, open banking and advisory services. It also offers products and solutions that facilitate money movement for all participants in the ecosystem.</v>
     <v>26500</v>
@@ -2738,25 +2738,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>P.O. Box 8999, SAN FRANCISCO, CA, 94128-8999 US</v>
-    <v>237.92</v>
+    <v>235.77</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.993799270313</v>
+    <v>45219.999653772655</v>
     <v>0</v>
-    <v>233.405</v>
-    <v>475887755410</v>
+    <v>232.64</v>
+    <v>475012550180</v>
     <v>VISA INC.</v>
     <v>VISA INC.</v>
-    <v>237.47</v>
-    <v>30.1358</v>
-    <v>237.47</v>
+    <v>234.13</v>
+    <v>29.671299999999999</v>
     <v>233.81</v>
-    <v>233.02</v>
+    <v>233.38</v>
+    <v>232.88</v>
     <v>2035361000</v>
     <v>V</v>
     <v>VISA INC. (XNYS:V)</v>
-    <v>5927439</v>
-    <v>6188978</v>
+    <v>5748421</v>
+    <v>5946077</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -3344,10 +3344,10 @@
   <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W90" sqref="W90"/>
+      <selection pane="bottomRight" activeCell="S113" sqref="S113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4597,15 +4597,15 @@
       </c>
       <c r="AA16" s="27">
         <f>AB102/T3</f>
-        <v>16.236361494711701</v>
+        <v>16.206501200272946</v>
       </c>
       <c r="AB16" s="27">
         <f>AB102/T28</f>
-        <v>31.817059263889817</v>
+        <v>31.758544506251255</v>
       </c>
       <c r="AC16" s="28">
         <f>AB102/T107</f>
-        <v>26.617134929805918</v>
+        <v>26.568183353655126</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4826,15 +4826,15 @@
       </c>
       <c r="AA19" s="27">
         <f>AB102/U3</f>
-        <v>14.593307433609322</v>
+        <v>14.56646888009813</v>
       </c>
       <c r="AB19" s="27">
         <f>AB102/U28</f>
-        <v>26.416195137940605</v>
+        <v>26.367613110185957</v>
       </c>
       <c r="AC19" s="28">
         <f>AB102/U107</f>
-        <v>25.990592867831786</v>
+        <v>25.942793565264882</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="AB22" s="41">
         <f>(-1*T98)/AB102</f>
-        <v>6.7305787206911067E-3</v>
+        <v>6.7429797355591211E-3</v>
       </c>
       <c r="AC22" s="29">
         <f>U107/AB102</f>
-        <v>3.8475459374291025E-2</v>
+        <v>3.8546349971304246E-2</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9922,7 +9922,7 @@
       </c>
       <c r="AB95" s="55">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="AB96" s="56" cm="1">
         <f t="array" ref="AB96">_FV(A1,"Beta")</f>
-        <v>0.9526</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -10146,7 +10146,7 @@
       </c>
       <c r="AB98" s="54">
         <f>(AB95)+((AB96)*(AB97-AB95))</f>
-        <v>8.2341947999999998E-2</v>
+        <v>8.2362240000000003E-2</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -10368,7 +10368,7 @@
       </c>
       <c r="AB101" s="54">
         <f>AB100/AB104</f>
-        <v>4.5049767464497237E-2</v>
+        <v>4.512902527411717E-2</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -10443,7 +10443,7 @@
       </c>
       <c r="AB102" s="57" cm="1">
         <f t="array" ref="AB102">_FV(A1,"Market cap",TRUE)</f>
-        <v>475887755410</v>
+        <v>475012550180</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -10518,7 +10518,7 @@
       </c>
       <c r="AB103" s="54">
         <f>AB102/AB104</f>
-        <v>0.95495023253550271</v>
+        <v>0.95487097472588278</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="AB104" s="58">
         <f>AB100+AB102</f>
-        <v>498337755410</v>
+        <v>497462550180</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -10808,7 +10808,7 @@
       </c>
       <c r="AB106" s="59">
         <f>(AB101*AB93)+(AB103*AB98)</f>
-        <v>7.9522813840335327E-2</v>
+        <v>7.9537230269682721E-2</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -10905,7 +10905,7 @@
       <c r="X108" s="63"/>
       <c r="Y108" s="47">
         <f>Y107*(1+AB108)/(AB109-AB108)</f>
-        <v>514015107181.92297</v>
+        <v>513879231882.8009</v>
       </c>
       <c r="Z108" s="48" t="s">
         <v>143</v>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="Y109" s="47">
         <f>Y108+Y107</f>
-        <v>541357107181.92297</v>
+        <v>541221231882.8009</v>
       </c>
       <c r="Z109" s="48" t="s">
         <v>141</v>
@@ -10946,7 +10946,7 @@
       </c>
       <c r="AB109" s="39">
         <f>AB106</f>
-        <v>7.9522813840335327E-2</v>
+        <v>7.9537230269682721E-2</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="19" x14ac:dyDescent="0.2">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="V111" s="57">
         <f>NPV(AB109,U109,V109,W109,X109,Y109)</f>
-        <v>439627134517.3819</v>
+        <v>439507435927.07361</v>
       </c>
       <c r="W111" s="43"/>
       <c r="X111" s="43"/>
@@ -11012,7 +11012,7 @@
       </c>
       <c r="V114" s="57">
         <f>V111+V112-V113</f>
-        <v>435699134517.3819</v>
+        <v>435579435927.07361</v>
       </c>
       <c r="W114" s="43"/>
       <c r="X114" s="43"/>
@@ -11042,7 +11042,7 @@
       </c>
       <c r="V116" s="66">
         <f>V114/V115</f>
-        <v>218.66761392698197</v>
+        <v>218.607539891806</v>
       </c>
       <c r="W116" s="43"/>
       <c r="X116" s="43"/>
@@ -11057,7 +11057,7 @@
       </c>
       <c r="V117" s="67" cm="1">
         <f t="array" ref="V117">_FV(A1,"Price")</f>
-        <v>233.81</v>
+        <v>233.38</v>
       </c>
       <c r="W117" s="43"/>
       <c r="X117" s="43"/>
@@ -11072,7 +11072,7 @@
       </c>
       <c r="V118" s="68">
         <f>V116/V117-1</f>
-        <v>-6.4763637453564948E-2</v>
+        <v>-6.3297883744082628E-2</v>
       </c>
       <c r="W118" s="43"/>
       <c r="X118" s="43"/>
